--- a/docs/worklogs/Ilyass_Chelli_worklog.xlsx
+++ b/docs/worklogs/Ilyass_Chelli_worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/658d56df718752c6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30968B4A-647A-4418-9242-DB3DE4E50993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23711AC-0CC1-44CA-8599-9515CD5DB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8244" yWindow="0" windowWidth="14892" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Jour</t>
   </si>
@@ -147,6 +147,27 @@
   </si>
   <si>
     <t>j'ai eux des problème par rapport au github et j'ai demander de l'aide a Bryan</t>
+  </si>
+  <si>
+    <t>vendredi, 23 janvier 2026</t>
+  </si>
+  <si>
+    <t>soudage de resistance pour led rgb</t>
+  </si>
+  <si>
+    <t>mardi, 27 janvier 2026</t>
+  </si>
+  <si>
+    <t>Recherche d'informations sur les capteurs ultrason HC-SR04 pour voiture LEGO</t>
+  </si>
+  <si>
+    <t>mardi 27 janvier 2026</t>
+  </si>
+  <si>
+    <t>Développement du code Arduino en C++ pour capteur de distance0,50MontageCâblage du capteur ultrason sur la carte Arduino (pins 16/17)</t>
+  </si>
+  <si>
+    <t>Câblage du capteur ultrason sur la carte ESP-32D (pins 16/17)</t>
   </si>
   <si>
     <t>Absence</t>
@@ -868,16 +889,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1903,9 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -1914,7 +1935,7 @@
     <col min="2" max="2" width="13.375" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="68.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="129.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="172.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2135,35 +2156,75 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1">
@@ -6109,7 +6170,7 @@
       </c>
       <c r="B2" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.95" customHeight="1">
@@ -6127,7 +6188,7 @@
       </c>
       <c r="B4" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.95" customHeight="1">
@@ -6136,7 +6197,7 @@
       </c>
       <c r="B5" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>6</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.95" customHeight="1">
@@ -6159,7 +6220,7 @@
     </row>
     <row r="8" spans="1:2" ht="24.95" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B8" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
@@ -6168,7 +6229,7 @@
     </row>
     <row r="9" spans="1:2" ht="24.95" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
@@ -8202,12 +8263,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/docs/worklogs/Ilyass_Chelli_worklog.xlsx
+++ b/docs/worklogs/Ilyass_Chelli_worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/658d56df718752c6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23711AC-0CC1-44CA-8599-9515CD5DB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D21C84-57CE-4B39-9A73-CF3DB0925DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8244" yWindow="0" windowWidth="14892" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Jour</t>
   </si>
@@ -170,10 +170,38 @@
     <t>Câblage du capteur ultrason sur la carte ESP-32D (pins 16/17)</t>
   </si>
   <si>
+    <t>mercredi, 28 janvier 2026</t>
+  </si>
+  <si>
+    <t>La création de la présentation PowerPoint</t>
+  </si>
+  <si>
+    <t>jeudi, 29 janvier 2026</t>
+  </si>
+  <si>
+    <t>Modification de la présentation PowerPoint</t>
+  </si>
+  <si>
+    <t>j'ai fais de la documentation de ce que j'ai fais jusqu’à présent mais je n'ai pas fini</t>
+  </si>
+  <si>
+    <t>recherche</t>
+  </si>
+  <si>
+    <t>Recherche de semi-conducteurs pour le moteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests de la voiture LEGO avec le groupe
+</t>
+  </si>
+  <si>
     <t>Absence</t>
   </si>
   <si>
     <t>Autre</t>
+  </si>
+  <si>
+    <t>conclusion</t>
   </si>
 </sst>
 </file>
@@ -226,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,6 +303,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,13 +926,13 @@
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.75</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.25</c:v>
@@ -1924,9 +1955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -1935,7 +1966,7 @@
     <col min="2" max="2" width="13.375" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="129.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="214.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="172.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2228,43 +2259,93 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+    <row r="17" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+    <row r="18" spans="1:6" ht="37.9" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+    <row r="19" spans="1:6" ht="33" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1">
@@ -6188,7 +6269,7 @@
       </c>
       <c r="B4" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.95" customHeight="1">
@@ -6197,7 +6278,7 @@
       </c>
       <c r="B5" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.95" customHeight="1">
@@ -6206,7 +6287,7 @@
       </c>
       <c r="B6" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.95" customHeight="1">
@@ -6220,7 +6301,7 @@
     </row>
     <row r="8" spans="1:2" ht="24.95" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B8" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
@@ -6229,7 +6310,7 @@
     </row>
     <row r="9" spans="1:2" ht="24.95" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B9" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
@@ -8220,10 +8301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E34FD7-1B73-4707-A12E-62E00BDCA8A2}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.9"/>
@@ -8263,16 +8344,23 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/worklogs/Ilyass_Chelli_worklog.xlsx
+++ b/docs/worklogs/Ilyass_Chelli_worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/658d56df718752c6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sytabram/Documents/Git/CPNV/Mastodon-MBTI/docs/worklogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D21C84-57CE-4B39-9A73-CF3DB0925DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EF0F8D-A608-6346-9D78-13234D77F994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28440" yWindow="600" windowWidth="45520" windowHeight="28200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Jour</t>
   </si>
@@ -65,19 +65,10 @@
     <t>Analyse</t>
   </si>
   <si>
-    <t>Compréhension du CDC et de l'ESP-32, fonctionnement</t>
-  </si>
-  <si>
     <t>mercredi, 14 janvier 2026</t>
   </si>
   <si>
     <t>Réalisation</t>
-  </si>
-  <si>
-    <t>Code des clignotants et montage sur breadboard</t>
-  </si>
-  <si>
-    <t>Le code fonctionnait mais problème pour faire fonctionner les LED sur le breadboard</t>
   </si>
   <si>
     <t>jeudi, 15 janvier 2026</t>
@@ -86,19 +77,7 @@
     <t>Conception</t>
   </si>
   <si>
-    <t>Création maquette circuit et intégration GitHub</t>
-  </si>
-  <si>
-    <t>Réussi à faire fonctionner les LED et à pousser le dossier sur GitHub via terminal. Aide d'un site web pour le circuit et aide de Bryan pour GitHub</t>
-  </si>
-  <si>
     <t>vendredi, 16 janvier 2026</t>
-  </si>
-  <si>
-    <t>Utilisation LED RGB et code</t>
-  </si>
-  <si>
-    <t>Compréhension du fonctionnement des LED RGB, réussi à en faire fonctionner une avec bleu, vert et rouge. Le breadboard est trop petit, utilisation d'une seule LED RGB possible</t>
   </si>
   <si>
     <t>lundi, 19 janvier 2026</t>
@@ -113,95 +92,139 @@
     <t>Administratif</t>
   </si>
   <si>
-    <t>Création documentation du projet sur Word</t>
-  </si>
-  <si>
-    <t>Document partagé en modification pour tous les membres, documentation en cours</t>
-  </si>
-  <si>
     <t>mercredi, 21 janvier 2026</t>
-  </si>
-  <si>
-    <t>code pour que les led s'allume quand on freine avec l2</t>
-  </si>
-  <si>
-    <t>il y avait des bug dans le code</t>
   </si>
   <si>
     <t>jeudi, 22 janvier 2026</t>
   </si>
   <si>
-    <t xml:space="preserve">debug code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">j'ai debug le code sur visual studio code et </t>
-  </si>
-  <si>
     <t>Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j'ai fais de la documentation de ce que j'ai fais jusqu’à présent </t>
-  </si>
-  <si>
-    <t>j'ai du utiliser github</t>
-  </si>
-  <si>
-    <t>j'ai eux des problème par rapport au github et j'ai demander de l'aide a Bryan</t>
   </si>
   <si>
     <t>vendredi, 23 janvier 2026</t>
   </si>
   <si>
-    <t>soudage de resistance pour led rgb</t>
-  </si>
-  <si>
     <t>mardi, 27 janvier 2026</t>
-  </si>
-  <si>
-    <t>Recherche d'informations sur les capteurs ultrason HC-SR04 pour voiture LEGO</t>
-  </si>
-  <si>
-    <t>mardi 27 janvier 2026</t>
-  </si>
-  <si>
-    <t>Développement du code Arduino en C++ pour capteur de distance0,50MontageCâblage du capteur ultrason sur la carte Arduino (pins 16/17)</t>
-  </si>
-  <si>
-    <t>Câblage du capteur ultrason sur la carte ESP-32D (pins 16/17)</t>
   </si>
   <si>
     <t>mercredi, 28 janvier 2026</t>
   </si>
   <si>
-    <t>La création de la présentation PowerPoint</t>
-  </si>
-  <si>
     <t>jeudi, 29 janvier 2026</t>
   </si>
   <si>
-    <t>Modification de la présentation PowerPoint</t>
-  </si>
-  <si>
-    <t>j'ai fais de la documentation de ce que j'ai fais jusqu’à présent mais je n'ai pas fini</t>
-  </si>
-  <si>
-    <t>recherche</t>
-  </si>
-  <si>
-    <t>Recherche de semi-conducteurs pour le moteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests de la voiture LEGO avec le groupe
-</t>
+    <t>Autre</t>
   </si>
   <si>
     <t>Absence</t>
   </si>
   <si>
-    <t>Autre</t>
+    <t>conclusion</t>
   </si>
   <si>
-    <t>conclusion</t>
+    <t>Compréhension du CDC et de l'ESP-32, fonctionnement.</t>
+  </si>
+  <si>
+    <t>Code des clignotants et montage sur breadboard.</t>
+  </si>
+  <si>
+    <t>Le code fonctionnait mais problème pour faire fonctionner les LED sur le breadboard.</t>
+  </si>
+  <si>
+    <t>Création maquette circuit et intégration GitHub.</t>
+  </si>
+  <si>
+    <t>Réussi à faire fonctionner les LED et à pousser le dossier sur GitHub via terminal. Aide d'un site web pour le circuit et aide de Bryan pour GitHub.</t>
+  </si>
+  <si>
+    <t>Utilisation LED RGB et code.</t>
+  </si>
+  <si>
+    <t>Compréhension du fonctionnement des LED RGB, réussi à en faire fonctionner une avec bleu, vert et rouge. Le breadboard est trop petit, utilisation d'une seule LED RGB possible.</t>
+  </si>
+  <si>
+    <t>Création documentation du projet sur Word.</t>
+  </si>
+  <si>
+    <t>Document partagé en modification pour tous les membres, documentation en cours.</t>
+  </si>
+  <si>
+    <t>Code pour que les LED s'allument quand on freine avec L2.</t>
+  </si>
+  <si>
+    <t>Il y avait des bugs dans le code.</t>
+  </si>
+  <si>
+    <t>Débogage du code.</t>
+  </si>
+  <si>
+    <t>J'ai débogué le code sur Visual Studio Code.</t>
+  </si>
+  <si>
+    <t>J'ai fait de la documentation de ce que j'ai fait jusqu'à présent.</t>
+  </si>
+  <si>
+    <t>J'ai dû utiliser GitHub.</t>
+  </si>
+  <si>
+    <t>J'ai eu des problèmes par rapport à GitHub et j'ai demandé de l'aide à Bryan.</t>
+  </si>
+  <si>
+    <t>Soudage de résistances pour LED RGB.</t>
+  </si>
+  <si>
+    <t>Recherche d'informations sur les capteurs ultrasons HC-SR04 pour voiture LEGO.</t>
+  </si>
+  <si>
+    <t>Développement du code Arduino en C++ pour capteur de distance.</t>
+  </si>
+  <si>
+    <t>Câblage du capteur ultrason sur la carte ESP-32D (pins 16/17).</t>
+  </si>
+  <si>
+    <t>Création de la présentation PowerPoint.</t>
+  </si>
+  <si>
+    <t>Modification de la présentation PowerPoint.</t>
+  </si>
+  <si>
+    <t>J'ai fait de la documentation de ce que j'ai fait jusqu'à présent mais je n'ai pas fini.</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Recherche de semi-conducteurs pour le moteur.</t>
+  </si>
+  <si>
+    <t>Tests de la voiture LEGO avec le groupe.</t>
+  </si>
+  <si>
+    <t>Événement</t>
+  </si>
+  <si>
+    <t>Participation aux portes ouvertes.</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Pitch du projet.</t>
+  </si>
+  <si>
+    <t>Cours de sport.</t>
+  </si>
+  <si>
+    <t>Je suis resté avec mon groupe.</t>
+  </si>
+  <si>
+    <t>Rédaction de ma conclusion du projet.</t>
+  </si>
+  <si>
+    <t>vendredi, 30 janvier</t>
+  </si>
+  <si>
+    <t>samedi, 31 janvier</t>
   </si>
 </sst>
 </file>
@@ -211,9 +234,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -233,6 +270,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,16 +294,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABDF5E"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABDF5E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABDF5E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,41 +328,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +998,7 @@
                   <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.25</c:v>
@@ -941,7 +1007,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,22 +2021,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="56" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="214.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="214.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="172.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2004,13 +2070,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="14">
         <v>1</v>
@@ -2019,18 +2085,18 @@
         <v>3.75</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="14">
         <v>1</v>
@@ -2039,18 +2105,18 @@
         <v>4.25</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -2059,18 +2125,18 @@
         <v>2.25</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
@@ -2079,18 +2145,18 @@
         <v>2.25</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
@@ -2099,18 +2165,18 @@
         <v>2.25</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14">
         <v>2</v>
@@ -2119,18 +2185,18 @@
         <v>3.75</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -2142,15 +2208,15 @@
         <v>7</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
@@ -2159,16 +2225,16 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -2177,18 +2243,18 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
@@ -2197,16 +2263,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B13" s="14">
         <v>3</v>
@@ -2218,13 +2284,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B14" s="14">
         <v>3</v>
@@ -2233,16 +2299,16 @@
         <v>0.75</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="B15" s="14">
         <v>3</v>
@@ -2251,16 +2317,16 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
@@ -2269,16 +2335,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="24.6" customHeight="1">
+    <row r="17" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B17" s="14">
         <v>3</v>
@@ -2287,16 +2353,16 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="37.9" customHeight="1">
+    <row r="18" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B18" s="14">
         <v>3</v>
@@ -2305,16 +2371,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="33" customHeight="1">
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B19" s="14">
         <v>3</v>
@@ -2323,16 +2389,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14">
         <v>3</v>
@@ -2341,54 +2407,104 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="14">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -2396,7 +2512,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -2404,7 +2520,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -2412,7 +2528,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -2420,7 +2536,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1">
+    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -2428,7 +2544,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1">
+    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -2436,7 +2552,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1">
+    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -2444,7 +2560,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1">
+    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
@@ -2452,7 +2568,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1">
+    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
@@ -2460,7 +2576,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1">
+    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
@@ -2468,7 +2584,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1">
+    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
@@ -2476,7 +2592,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1">
+    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
@@ -2484,7 +2600,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1">
+    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -2492,7 +2608,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" ht="24.95" customHeight="1">
+    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
@@ -2500,7 +2616,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" ht="24.95" customHeight="1">
+    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
@@ -2508,7 +2624,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" ht="24.95" customHeight="1">
+    <row r="41" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
@@ -2516,7 +2632,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" ht="24.95" customHeight="1">
+    <row r="42" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
@@ -2524,7 +2640,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" ht="24.95" customHeight="1">
+    <row r="43" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
@@ -2532,7 +2648,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" ht="24.95" customHeight="1">
+    <row r="44" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -2540,7 +2656,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" ht="24.95" customHeight="1">
+    <row r="45" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -2548,7 +2664,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" ht="24.95" customHeight="1">
+    <row r="46" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -2556,7 +2672,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="24.95" customHeight="1">
+    <row r="47" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -2564,7 +2680,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" ht="24.95" customHeight="1">
+    <row r="48" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -2572,7 +2688,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" ht="24.95" customHeight="1">
+    <row r="49" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -2580,7 +2696,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" ht="24.95" customHeight="1">
+    <row r="50" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -2588,7 +2704,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" ht="24.95" customHeight="1">
+    <row r="51" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -2596,7 +2712,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" ht="24.95" customHeight="1">
+    <row r="52" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -2604,7 +2720,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:6" ht="24.95" customHeight="1">
+    <row r="53" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
@@ -2612,7 +2728,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" ht="24.95" customHeight="1">
+    <row r="54" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -2620,7 +2736,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" ht="24.95" customHeight="1">
+    <row r="55" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -2628,7 +2744,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" ht="24.95" customHeight="1">
+    <row r="56" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
@@ -2636,7 +2752,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" ht="24.95" customHeight="1">
+    <row r="57" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
@@ -2644,7 +2760,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" ht="24.95" customHeight="1">
+    <row r="58" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
@@ -2652,7 +2768,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" ht="24.95" customHeight="1">
+    <row r="59" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
@@ -2660,7 +2776,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" ht="24.95" customHeight="1">
+    <row r="60" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -2668,7 +2784,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" ht="24.95" customHeight="1">
+    <row r="61" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
@@ -2676,7 +2792,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" ht="24.95" customHeight="1">
+    <row r="62" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
@@ -2684,7 +2800,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" ht="24.95" customHeight="1">
+    <row r="63" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
@@ -2692,7 +2808,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" ht="24.95" customHeight="1">
+    <row r="64" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
@@ -2700,7 +2816,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" ht="24.95" customHeight="1">
+    <row r="65" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
@@ -2708,7 +2824,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" ht="24.95" customHeight="1">
+    <row r="66" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
@@ -2716,7 +2832,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" ht="24.95" customHeight="1">
+    <row r="67" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
@@ -2724,7 +2840,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" ht="24.95" customHeight="1">
+    <row r="68" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
@@ -2732,7 +2848,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" ht="24.95" customHeight="1">
+    <row r="69" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
@@ -2740,7 +2856,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:6" ht="24.95" customHeight="1">
+    <row r="70" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
@@ -2748,7 +2864,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="1:6" ht="24.95" customHeight="1">
+    <row r="71" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
@@ -2756,7 +2872,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" ht="24.95" customHeight="1">
+    <row r="72" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
@@ -2764,7 +2880,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="1:6" ht="24.95" customHeight="1">
+    <row r="73" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
@@ -2772,7 +2888,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="1:6" ht="24.95" customHeight="1">
+    <row r="74" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
@@ -2780,7 +2896,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="1:6" ht="24.95" customHeight="1">
+    <row r="75" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
@@ -2788,7 +2904,7 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" ht="24.95" customHeight="1">
+    <row r="76" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
@@ -2796,7 +2912,7 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="1:6" ht="24.95" customHeight="1">
+    <row r="77" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
@@ -2804,7 +2920,7 @@
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="1:6" ht="24.95" customHeight="1">
+    <row r="78" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
@@ -2812,7 +2928,7 @@
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="1:6" ht="24.95" customHeight="1">
+    <row r="79" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
@@ -2820,7 +2936,7 @@
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="1:6" ht="24.95" customHeight="1">
+    <row r="80" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
@@ -2828,7 +2944,7 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="1:6" ht="24.95" customHeight="1">
+    <row r="81" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
@@ -2836,7 +2952,7 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="1:6" ht="24.95" customHeight="1">
+    <row r="82" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
@@ -2844,7 +2960,7 @@
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="1:6" ht="24.95" customHeight="1">
+    <row r="83" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
@@ -2852,7 +2968,7 @@
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" spans="1:6" ht="24.95" customHeight="1">
+    <row r="84" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -2860,7 +2976,7 @@
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="1:6" ht="24.95" customHeight="1">
+    <row r="85" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
@@ -2868,7 +2984,7 @@
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="1:6" ht="24.95" customHeight="1">
+    <row r="86" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
@@ -2876,7 +2992,7 @@
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="1:6" ht="24.95" customHeight="1">
+    <row r="87" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -2884,7 +3000,7 @@
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="1:6" ht="24.95" customHeight="1">
+    <row r="88" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -2892,7 +3008,7 @@
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="1:6" ht="24.95" customHeight="1">
+    <row r="89" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -2900,7 +3016,7 @@
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" spans="1:6" ht="24.95" customHeight="1">
+    <row r="90" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -2908,7 +3024,7 @@
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" spans="1:6" ht="24.95" customHeight="1">
+    <row r="91" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -2916,7 +3032,7 @@
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="1:6" ht="24.95" customHeight="1">
+    <row r="92" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -2924,7 +3040,7 @@
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" spans="1:6" ht="24.95" customHeight="1">
+    <row r="93" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -2932,7 +3048,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" spans="1:6" ht="24.95" customHeight="1">
+    <row r="94" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -2940,7 +3056,7 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" spans="1:6" ht="24.95" customHeight="1">
+    <row r="95" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -2948,7 +3064,7 @@
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="1:6" ht="24.95" customHeight="1">
+    <row r="96" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -2956,7 +3072,7 @@
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:6" ht="24.95" customHeight="1">
+    <row r="97" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
@@ -2964,7 +3080,7 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:6" ht="24.95" customHeight="1">
+    <row r="98" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
@@ -2972,7 +3088,7 @@
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" spans="1:6" ht="24.95" customHeight="1">
+    <row r="99" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
@@ -2980,7 +3096,7 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" spans="1:6" ht="24.95" customHeight="1">
+    <row r="100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="14"/>
       <c r="C100" s="15"/>
@@ -2988,7 +3104,7 @@
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
-    <row r="101" spans="1:6" ht="24.95" customHeight="1">
+    <row r="101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
@@ -2996,7 +3112,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
-    <row r="102" spans="1:6" ht="24.95" customHeight="1">
+    <row r="102" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
@@ -3004,7 +3120,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" spans="1:6" ht="24.95" customHeight="1">
+    <row r="103" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="14"/>
       <c r="C103" s="15"/>
@@ -3012,7 +3128,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" spans="1:6" ht="24.95" customHeight="1">
+    <row r="104" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="14"/>
       <c r="C104" s="15"/>
@@ -3020,7 +3136,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" spans="1:6" ht="24.95" customHeight="1">
+    <row r="105" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
@@ -3028,7 +3144,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="1:6" ht="24.95" customHeight="1">
+    <row r="106" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="14"/>
       <c r="C106" s="15"/>
@@ -3036,7 +3152,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" spans="1:6" ht="24.95" customHeight="1">
+    <row r="107" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
@@ -3044,7 +3160,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" spans="1:6" ht="24.95" customHeight="1">
+    <row r="108" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
@@ -3052,7 +3168,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" spans="1:6" ht="24.95" customHeight="1">
+    <row r="109" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
@@ -3060,7 +3176,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" spans="1:6" ht="24.95" customHeight="1">
+    <row r="110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
@@ -3068,7 +3184,7 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" spans="1:6" ht="24.95" customHeight="1">
+    <row r="111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
@@ -3076,7 +3192,7 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="1:6" ht="24.95" customHeight="1">
+    <row r="112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="14"/>
       <c r="C112" s="15"/>
@@ -3084,7 +3200,7 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="1:6" ht="24.95" customHeight="1">
+    <row r="113" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="14"/>
       <c r="C113" s="15"/>
@@ -3092,7 +3208,7 @@
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="1:6" ht="24.95" customHeight="1">
+    <row r="114" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
@@ -3100,7 +3216,7 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="1:6" ht="24.95" customHeight="1">
+    <row r="115" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
@@ -3108,7 +3224,7 @@
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="1:6" ht="24.95" customHeight="1">
+    <row r="116" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
@@ -3116,7 +3232,7 @@
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="1:6" ht="24.95" customHeight="1">
+    <row r="117" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
@@ -3124,7 +3240,7 @@
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="1:6" ht="24.95" customHeight="1">
+    <row r="118" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -3132,7 +3248,7 @@
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="1:6" ht="24.95" customHeight="1">
+    <row r="119" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
@@ -3140,7 +3256,7 @@
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="1:6" ht="24.95" customHeight="1">
+    <row r="120" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
@@ -3148,7 +3264,7 @@
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="1:6" ht="24.95" customHeight="1">
+    <row r="121" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="14"/>
       <c r="C121" s="15"/>
@@ -3156,7 +3272,7 @@
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="1:6" ht="24.95" customHeight="1">
+    <row r="122" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="14"/>
       <c r="C122" s="15"/>
@@ -3164,7 +3280,7 @@
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="1:6" ht="24.95" customHeight="1">
+    <row r="123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
@@ -3172,7 +3288,7 @@
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="1:6" ht="24.95" customHeight="1">
+    <row r="124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="14"/>
       <c r="C124" s="15"/>
@@ -3180,7 +3296,7 @@
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="1:6" ht="24.95" customHeight="1">
+    <row r="125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15"/>
@@ -3188,7 +3304,7 @@
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="1:6" ht="24.95" customHeight="1">
+    <row r="126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="14"/>
       <c r="C126" s="15"/>
@@ -3196,7 +3312,7 @@
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="1:6" ht="24.95" customHeight="1">
+    <row r="127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="14"/>
       <c r="C127" s="15"/>
@@ -3204,7 +3320,7 @@
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="1:6" ht="24.95" customHeight="1">
+    <row r="128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="14"/>
       <c r="C128" s="15"/>
@@ -3212,7 +3328,7 @@
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
     </row>
-    <row r="129" spans="1:6" ht="24.95" customHeight="1">
+    <row r="129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
@@ -3220,7 +3336,7 @@
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="1:6" ht="24.95" customHeight="1">
+    <row r="130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
@@ -3228,7 +3344,7 @@
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" spans="1:6" ht="24.95" customHeight="1">
+    <row r="131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
@@ -3236,7 +3352,7 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" spans="1:6" ht="24.95" customHeight="1">
+    <row r="132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
@@ -3244,7 +3360,7 @@
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
     </row>
-    <row r="133" spans="1:6" ht="24.95" customHeight="1">
+    <row r="133" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
@@ -3252,7 +3368,7 @@
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
     </row>
-    <row r="134" spans="1:6" ht="24.95" customHeight="1">
+    <row r="134" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
@@ -3260,7 +3376,7 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" spans="1:6" ht="24.95" customHeight="1">
+    <row r="135" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
@@ -3268,7 +3384,7 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" ht="24.95" customHeight="1">
+    <row r="136" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
@@ -3276,7 +3392,7 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" ht="24.95" customHeight="1">
+    <row r="137" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
@@ -3284,7 +3400,7 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" ht="24.95" customHeight="1">
+    <row r="138" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15"/>
@@ -3292,7 +3408,7 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" spans="1:6" ht="24.95" customHeight="1">
+    <row r="139" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="14"/>
       <c r="C139" s="15"/>
@@ -3300,7 +3416,7 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" ht="24.95" customHeight="1">
+    <row r="140" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="14"/>
       <c r="C140" s="15"/>
@@ -3308,7 +3424,7 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6" ht="24.95" customHeight="1">
+    <row r="141" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="14"/>
       <c r="C141" s="15"/>
@@ -3316,7 +3432,7 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
     </row>
-    <row r="142" spans="1:6" ht="24.95" customHeight="1">
+    <row r="142" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="14"/>
       <c r="C142" s="15"/>
@@ -3324,7 +3440,7 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" spans="1:6" ht="24.95" customHeight="1">
+    <row r="143" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="14"/>
       <c r="C143" s="15"/>
@@ -3332,7 +3448,7 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" spans="1:6" ht="24.95" customHeight="1">
+    <row r="144" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="14"/>
       <c r="C144" s="15"/>
@@ -3340,7 +3456,7 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
     </row>
-    <row r="145" spans="1:6" ht="24.95" customHeight="1">
+    <row r="145" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="14"/>
       <c r="C145" s="15"/>
@@ -3348,7 +3464,7 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
     </row>
-    <row r="146" spans="1:6" ht="24.95" customHeight="1">
+    <row r="146" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="14"/>
       <c r="C146" s="15"/>
@@ -3356,7 +3472,7 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
     </row>
-    <row r="147" spans="1:6" ht="24.95" customHeight="1">
+    <row r="147" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -3364,7 +3480,7 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
     </row>
-    <row r="148" spans="1:6" ht="24.95" customHeight="1">
+    <row r="148" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
@@ -3372,7 +3488,7 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
     </row>
-    <row r="149" spans="1:6" ht="24.95" customHeight="1">
+    <row r="149" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="14"/>
       <c r="C149" s="15"/>
@@ -3380,7 +3496,7 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
     </row>
-    <row r="150" spans="1:6" ht="24.95" customHeight="1">
+    <row r="150" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="14"/>
       <c r="C150" s="15"/>
@@ -3388,7 +3504,7 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
     </row>
-    <row r="151" spans="1:6" ht="24.95" customHeight="1">
+    <row r="151" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="14"/>
       <c r="C151" s="15"/>
@@ -3396,7 +3512,7 @@
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
     </row>
-    <row r="152" spans="1:6" ht="24.95" customHeight="1">
+    <row r="152" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="14"/>
       <c r="C152" s="15"/>
@@ -3404,7 +3520,7 @@
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
     </row>
-    <row r="153" spans="1:6" ht="24.95" customHeight="1">
+    <row r="153" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="14"/>
       <c r="C153" s="15"/>
@@ -3412,7 +3528,7 @@
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" spans="1:6" ht="24.95" customHeight="1">
+    <row r="154" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="14"/>
       <c r="C154" s="15"/>
@@ -3420,7 +3536,7 @@
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" spans="1:6" ht="24.95" customHeight="1">
+    <row r="155" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="14"/>
       <c r="C155" s="15"/>
@@ -3428,7 +3544,7 @@
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" spans="1:6" ht="24.95" customHeight="1">
+    <row r="156" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="14"/>
       <c r="C156" s="15"/>
@@ -3436,7 +3552,7 @@
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" spans="1:6" ht="24.95" customHeight="1">
+    <row r="157" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="14"/>
       <c r="C157" s="15"/>
@@ -3444,7 +3560,7 @@
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
     </row>
-    <row r="158" spans="1:6" ht="24.95" customHeight="1">
+    <row r="158" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
@@ -3452,7 +3568,7 @@
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
     </row>
-    <row r="159" spans="1:6" ht="24.95" customHeight="1">
+    <row r="159" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="14"/>
       <c r="C159" s="15"/>
@@ -3460,7 +3576,7 @@
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
     </row>
-    <row r="160" spans="1:6" ht="24.95" customHeight="1">
+    <row r="160" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="14"/>
       <c r="C160" s="15"/>
@@ -3468,7 +3584,7 @@
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
     </row>
-    <row r="161" spans="1:6" ht="24.95" customHeight="1">
+    <row r="161" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="14"/>
       <c r="C161" s="15"/>
@@ -3476,7 +3592,7 @@
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
     </row>
-    <row r="162" spans="1:6" ht="24.95" customHeight="1">
+    <row r="162" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="11"/>
       <c r="B162" s="14"/>
       <c r="C162" s="15"/>
@@ -3484,7 +3600,7 @@
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
     </row>
-    <row r="163" spans="1:6" ht="24.95" customHeight="1">
+    <row r="163" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="11"/>
       <c r="B163" s="14"/>
       <c r="C163" s="15"/>
@@ -3492,7 +3608,7 @@
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
     </row>
-    <row r="164" spans="1:6" ht="24.95" customHeight="1">
+    <row r="164" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="11"/>
       <c r="B164" s="14"/>
       <c r="C164" s="15"/>
@@ -3500,7 +3616,7 @@
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
     </row>
-    <row r="165" spans="1:6" ht="24.95" customHeight="1">
+    <row r="165" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="11"/>
       <c r="B165" s="14"/>
       <c r="C165" s="15"/>
@@ -3508,7 +3624,7 @@
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
     </row>
-    <row r="166" spans="1:6" ht="24.95" customHeight="1">
+    <row r="166" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="11"/>
       <c r="B166" s="14"/>
       <c r="C166" s="15"/>
@@ -3516,7 +3632,7 @@
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
     </row>
-    <row r="167" spans="1:6" ht="24.95" customHeight="1">
+    <row r="167" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="11"/>
       <c r="B167" s="14"/>
       <c r="C167" s="15"/>
@@ -3524,7 +3640,7 @@
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
     </row>
-    <row r="168" spans="1:6" ht="24.95" customHeight="1">
+    <row r="168" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="11"/>
       <c r="B168" s="14"/>
       <c r="C168" s="15"/>
@@ -3532,7 +3648,7 @@
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
     </row>
-    <row r="169" spans="1:6" ht="24.95" customHeight="1">
+    <row r="169" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="11"/>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
@@ -3540,7 +3656,7 @@
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
     </row>
-    <row r="170" spans="1:6" ht="24.95" customHeight="1">
+    <row r="170" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="11"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
@@ -3548,7 +3664,7 @@
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
     </row>
-    <row r="171" spans="1:6" ht="24.95" customHeight="1">
+    <row r="171" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="11"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
@@ -3556,7 +3672,7 @@
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
     </row>
-    <row r="172" spans="1:6" ht="24.95" customHeight="1">
+    <row r="172" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="11"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
@@ -3564,7 +3680,7 @@
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
     </row>
-    <row r="173" spans="1:6" ht="24.95" customHeight="1">
+    <row r="173" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="11"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
@@ -3572,7 +3688,7 @@
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
     </row>
-    <row r="174" spans="1:6" ht="24.95" customHeight="1">
+    <row r="174" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="11"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
@@ -3580,7 +3696,7 @@
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
     </row>
-    <row r="175" spans="1:6" ht="24.95" customHeight="1">
+    <row r="175" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="11"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
@@ -3588,7 +3704,7 @@
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
     </row>
-    <row r="176" spans="1:6" ht="24.95" customHeight="1">
+    <row r="176" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="11"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -3596,7 +3712,7 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
     </row>
-    <row r="177" spans="1:6" ht="24.95" customHeight="1">
+    <row r="177" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="11"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
@@ -3604,7 +3720,7 @@
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
     </row>
-    <row r="178" spans="1:6" ht="24.95" customHeight="1">
+    <row r="178" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="11"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
@@ -3612,7 +3728,7 @@
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
     </row>
-    <row r="179" spans="1:6" ht="24.95" customHeight="1">
+    <row r="179" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="11"/>
       <c r="B179" s="14"/>
       <c r="C179" s="15"/>
@@ -3620,7 +3736,7 @@
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
     </row>
-    <row r="180" spans="1:6" ht="24.95" customHeight="1">
+    <row r="180" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="11"/>
       <c r="B180" s="14"/>
       <c r="C180" s="15"/>
@@ -3628,7 +3744,7 @@
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
     </row>
-    <row r="181" spans="1:6" ht="24.95" customHeight="1">
+    <row r="181" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="11"/>
       <c r="B181" s="14"/>
       <c r="C181" s="15"/>
@@ -3636,7 +3752,7 @@
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
     </row>
-    <row r="182" spans="1:6" ht="24.95" customHeight="1">
+    <row r="182" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="11"/>
       <c r="B182" s="14"/>
       <c r="C182" s="15"/>
@@ -3644,7 +3760,7 @@
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
     </row>
-    <row r="183" spans="1:6" ht="24.95" customHeight="1">
+    <row r="183" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="11"/>
       <c r="B183" s="14"/>
       <c r="C183" s="15"/>
@@ -3652,7 +3768,7 @@
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
     </row>
-    <row r="184" spans="1:6" ht="24.95" customHeight="1">
+    <row r="184" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="11"/>
       <c r="B184" s="14"/>
       <c r="C184" s="15"/>
@@ -3660,7 +3776,7 @@
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
     </row>
-    <row r="185" spans="1:6" ht="24.95" customHeight="1">
+    <row r="185" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="11"/>
       <c r="B185" s="14"/>
       <c r="C185" s="15"/>
@@ -3668,7 +3784,7 @@
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
     </row>
-    <row r="186" spans="1:6" ht="24.95" customHeight="1">
+    <row r="186" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="11"/>
       <c r="B186" s="14"/>
       <c r="C186" s="15"/>
@@ -3676,7 +3792,7 @@
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" spans="1:6" ht="24.95" customHeight="1">
+    <row r="187" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="11"/>
       <c r="B187" s="14"/>
       <c r="C187" s="15"/>
@@ -3684,7 +3800,7 @@
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
     </row>
-    <row r="188" spans="1:6" ht="24.95" customHeight="1">
+    <row r="188" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="11"/>
       <c r="B188" s="14"/>
       <c r="C188" s="15"/>
@@ -3692,7 +3808,7 @@
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
     </row>
-    <row r="189" spans="1:6" ht="24.95" customHeight="1">
+    <row r="189" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="11"/>
       <c r="B189" s="14"/>
       <c r="C189" s="15"/>
@@ -3700,7 +3816,7 @@
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
     </row>
-    <row r="190" spans="1:6" ht="24.95" customHeight="1">
+    <row r="190" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="11"/>
       <c r="B190" s="14"/>
       <c r="C190" s="15"/>
@@ -3708,7 +3824,7 @@
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
     </row>
-    <row r="191" spans="1:6" ht="24.95" customHeight="1">
+    <row r="191" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="11"/>
       <c r="B191" s="14"/>
       <c r="C191" s="15"/>
@@ -3716,7 +3832,7 @@
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
     </row>
-    <row r="192" spans="1:6" ht="24.95" customHeight="1">
+    <row r="192" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="11"/>
       <c r="B192" s="14"/>
       <c r="C192" s="15"/>
@@ -3724,7 +3840,7 @@
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
     </row>
-    <row r="193" spans="1:6" ht="24.95" customHeight="1">
+    <row r="193" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="11"/>
       <c r="B193" s="14"/>
       <c r="C193" s="15"/>
@@ -3732,7 +3848,7 @@
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
     </row>
-    <row r="194" spans="1:6" ht="24.95" customHeight="1">
+    <row r="194" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="11"/>
       <c r="B194" s="14"/>
       <c r="C194" s="15"/>
@@ -3740,7 +3856,7 @@
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
     </row>
-    <row r="195" spans="1:6" ht="24.95" customHeight="1">
+    <row r="195" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="11"/>
       <c r="B195" s="14"/>
       <c r="C195" s="15"/>
@@ -3748,7 +3864,7 @@
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
     </row>
-    <row r="196" spans="1:6" ht="24.95" customHeight="1">
+    <row r="196" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="11"/>
       <c r="B196" s="14"/>
       <c r="C196" s="15"/>
@@ -3756,7 +3872,7 @@
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
     </row>
-    <row r="197" spans="1:6" ht="24.95" customHeight="1">
+    <row r="197" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="11"/>
       <c r="B197" s="14"/>
       <c r="C197" s="15"/>
@@ -3764,7 +3880,7 @@
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="198" spans="1:6" ht="24.95" customHeight="1">
+    <row r="198" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="11"/>
       <c r="B198" s="14"/>
       <c r="C198" s="15"/>
@@ -3772,7 +3888,7 @@
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
     </row>
-    <row r="199" spans="1:6" ht="24.95" customHeight="1">
+    <row r="199" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="11"/>
       <c r="B199" s="14"/>
       <c r="C199" s="15"/>
@@ -3780,7 +3896,7 @@
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
     </row>
-    <row r="200" spans="1:6" ht="24.95" customHeight="1">
+    <row r="200" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="11"/>
       <c r="B200" s="14"/>
       <c r="C200" s="15"/>
@@ -3788,7 +3904,7 @@
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
     </row>
-    <row r="201" spans="1:6" ht="24.95" customHeight="1">
+    <row r="201" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="11"/>
       <c r="B201" s="14"/>
       <c r="C201" s="15"/>
@@ -3796,7 +3912,7 @@
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
     </row>
-    <row r="202" spans="1:6" ht="24.95" customHeight="1">
+    <row r="202" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="11"/>
       <c r="B202" s="14"/>
       <c r="C202" s="15"/>
@@ -3804,7 +3920,7 @@
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
     </row>
-    <row r="203" spans="1:6" ht="24.95" customHeight="1">
+    <row r="203" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="11"/>
       <c r="B203" s="14"/>
       <c r="C203" s="15"/>
@@ -3812,7 +3928,7 @@
       <c r="E203" s="13"/>
       <c r="F203" s="13"/>
     </row>
-    <row r="204" spans="1:6" ht="24.95" customHeight="1">
+    <row r="204" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="11"/>
       <c r="B204" s="14"/>
       <c r="C204" s="15"/>
@@ -3820,7 +3936,7 @@
       <c r="E204" s="13"/>
       <c r="F204" s="13"/>
     </row>
-    <row r="205" spans="1:6" ht="24.95" customHeight="1">
+    <row r="205" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="11"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -3828,7 +3944,7 @@
       <c r="E205" s="13"/>
       <c r="F205" s="13"/>
     </row>
-    <row r="206" spans="1:6" ht="24.95" customHeight="1">
+    <row r="206" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="11"/>
       <c r="B206" s="14"/>
       <c r="C206" s="15"/>
@@ -3836,7 +3952,7 @@
       <c r="E206" s="13"/>
       <c r="F206" s="13"/>
     </row>
-    <row r="207" spans="1:6" ht="24.95" customHeight="1">
+    <row r="207" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="11"/>
       <c r="B207" s="14"/>
       <c r="C207" s="15"/>
@@ -3844,7 +3960,7 @@
       <c r="E207" s="13"/>
       <c r="F207" s="13"/>
     </row>
-    <row r="208" spans="1:6" ht="24.95" customHeight="1">
+    <row r="208" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="11"/>
       <c r="B208" s="14"/>
       <c r="C208" s="15"/>
@@ -3852,7 +3968,7 @@
       <c r="E208" s="13"/>
       <c r="F208" s="13"/>
     </row>
-    <row r="209" spans="1:6" ht="24.95" customHeight="1">
+    <row r="209" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="11"/>
       <c r="B209" s="14"/>
       <c r="C209" s="15"/>
@@ -3860,7 +3976,7 @@
       <c r="E209" s="13"/>
       <c r="F209" s="13"/>
     </row>
-    <row r="210" spans="1:6" ht="24.95" customHeight="1">
+    <row r="210" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="11"/>
       <c r="B210" s="14"/>
       <c r="C210" s="15"/>
@@ -3868,7 +3984,7 @@
       <c r="E210" s="13"/>
       <c r="F210" s="13"/>
     </row>
-    <row r="211" spans="1:6" ht="24.95" customHeight="1">
+    <row r="211" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="11"/>
       <c r="B211" s="14"/>
       <c r="C211" s="15"/>
@@ -3876,7 +3992,7 @@
       <c r="E211" s="13"/>
       <c r="F211" s="13"/>
     </row>
-    <row r="212" spans="1:6" ht="24.95" customHeight="1">
+    <row r="212" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="11"/>
       <c r="B212" s="14"/>
       <c r="C212" s="15"/>
@@ -3884,7 +4000,7 @@
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
     </row>
-    <row r="213" spans="1:6" ht="24.95" customHeight="1">
+    <row r="213" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="11"/>
       <c r="B213" s="14"/>
       <c r="C213" s="15"/>
@@ -3892,7 +4008,7 @@
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
     </row>
-    <row r="214" spans="1:6" ht="24.95" customHeight="1">
+    <row r="214" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="11"/>
       <c r="B214" s="14"/>
       <c r="C214" s="15"/>
@@ -3900,7 +4016,7 @@
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
     </row>
-    <row r="215" spans="1:6" ht="24.95" customHeight="1">
+    <row r="215" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="11"/>
       <c r="B215" s="14"/>
       <c r="C215" s="15"/>
@@ -3908,7 +4024,7 @@
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
     </row>
-    <row r="216" spans="1:6" ht="24.95" customHeight="1">
+    <row r="216" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="11"/>
       <c r="B216" s="14"/>
       <c r="C216" s="15"/>
@@ -3916,7 +4032,7 @@
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
     </row>
-    <row r="217" spans="1:6" ht="24.95" customHeight="1">
+    <row r="217" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="11"/>
       <c r="B217" s="14"/>
       <c r="C217" s="15"/>
@@ -3924,7 +4040,7 @@
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
     </row>
-    <row r="218" spans="1:6" ht="24.95" customHeight="1">
+    <row r="218" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="11"/>
       <c r="B218" s="14"/>
       <c r="C218" s="15"/>
@@ -3932,7 +4048,7 @@
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
     </row>
-    <row r="219" spans="1:6" ht="24.95" customHeight="1">
+    <row r="219" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="11"/>
       <c r="B219" s="14"/>
       <c r="C219" s="15"/>
@@ -3940,7 +4056,7 @@
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
     </row>
-    <row r="220" spans="1:6" ht="24.95" customHeight="1">
+    <row r="220" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="11"/>
       <c r="B220" s="14"/>
       <c r="C220" s="15"/>
@@ -3948,7 +4064,7 @@
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
-    <row r="221" spans="1:6" ht="24.95" customHeight="1">
+    <row r="221" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="11"/>
       <c r="B221" s="14"/>
       <c r="C221" s="15"/>
@@ -3956,7 +4072,7 @@
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
     </row>
-    <row r="222" spans="1:6" ht="24.95" customHeight="1">
+    <row r="222" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="11"/>
       <c r="B222" s="14"/>
       <c r="C222" s="15"/>
@@ -3964,7 +4080,7 @@
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
     </row>
-    <row r="223" spans="1:6" ht="24.95" customHeight="1">
+    <row r="223" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="11"/>
       <c r="B223" s="14"/>
       <c r="C223" s="15"/>
@@ -3972,7 +4088,7 @@
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
     </row>
-    <row r="224" spans="1:6" ht="24.95" customHeight="1">
+    <row r="224" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="11"/>
       <c r="B224" s="14"/>
       <c r="C224" s="15"/>
@@ -3980,7 +4096,7 @@
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
     </row>
-    <row r="225" spans="1:6" ht="24.95" customHeight="1">
+    <row r="225" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="11"/>
       <c r="B225" s="14"/>
       <c r="C225" s="15"/>
@@ -3988,7 +4104,7 @@
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
     </row>
-    <row r="226" spans="1:6" ht="24.95" customHeight="1">
+    <row r="226" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="11"/>
       <c r="B226" s="14"/>
       <c r="C226" s="15"/>
@@ -3996,7 +4112,7 @@
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="227" spans="1:6" ht="24.95" customHeight="1">
+    <row r="227" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="11"/>
       <c r="B227" s="14"/>
       <c r="C227" s="15"/>
@@ -4004,7 +4120,7 @@
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
     </row>
-    <row r="228" spans="1:6" ht="24.95" customHeight="1">
+    <row r="228" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="11"/>
       <c r="B228" s="14"/>
       <c r="C228" s="15"/>
@@ -4012,7 +4128,7 @@
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
     </row>
-    <row r="229" spans="1:6" ht="24.95" customHeight="1">
+    <row r="229" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="11"/>
       <c r="B229" s="14"/>
       <c r="C229" s="15"/>
@@ -4020,7 +4136,7 @@
       <c r="E229" s="13"/>
       <c r="F229" s="13"/>
     </row>
-    <row r="230" spans="1:6" ht="24.95" customHeight="1">
+    <row r="230" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="11"/>
       <c r="B230" s="14"/>
       <c r="C230" s="15"/>
@@ -4028,7 +4144,7 @@
       <c r="E230" s="13"/>
       <c r="F230" s="13"/>
     </row>
-    <row r="231" spans="1:6" ht="24.95" customHeight="1">
+    <row r="231" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="11"/>
       <c r="B231" s="14"/>
       <c r="C231" s="15"/>
@@ -4036,7 +4152,7 @@
       <c r="E231" s="13"/>
       <c r="F231" s="13"/>
     </row>
-    <row r="232" spans="1:6" ht="24.95" customHeight="1">
+    <row r="232" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="11"/>
       <c r="B232" s="14"/>
       <c r="C232" s="15"/>
@@ -4044,7 +4160,7 @@
       <c r="E232" s="13"/>
       <c r="F232" s="13"/>
     </row>
-    <row r="233" spans="1:6" ht="24.95" customHeight="1">
+    <row r="233" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="11"/>
       <c r="B233" s="14"/>
       <c r="C233" s="15"/>
@@ -4052,7 +4168,7 @@
       <c r="E233" s="13"/>
       <c r="F233" s="13"/>
     </row>
-    <row r="234" spans="1:6" ht="24.95" customHeight="1">
+    <row r="234" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="11"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -4060,7 +4176,7 @@
       <c r="E234" s="13"/>
       <c r="F234" s="13"/>
     </row>
-    <row r="235" spans="1:6" ht="24.95" customHeight="1">
+    <row r="235" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="11"/>
       <c r="B235" s="14"/>
       <c r="C235" s="15"/>
@@ -4068,7 +4184,7 @@
       <c r="E235" s="13"/>
       <c r="F235" s="13"/>
     </row>
-    <row r="236" spans="1:6" ht="24.95" customHeight="1">
+    <row r="236" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="11"/>
       <c r="B236" s="14"/>
       <c r="C236" s="15"/>
@@ -4076,7 +4192,7 @@
       <c r="E236" s="13"/>
       <c r="F236" s="13"/>
     </row>
-    <row r="237" spans="1:6" ht="24.95" customHeight="1">
+    <row r="237" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="11"/>
       <c r="B237" s="14"/>
       <c r="C237" s="15"/>
@@ -4084,7 +4200,7 @@
       <c r="E237" s="13"/>
       <c r="F237" s="13"/>
     </row>
-    <row r="238" spans="1:6" ht="24.95" customHeight="1">
+    <row r="238" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="11"/>
       <c r="B238" s="14"/>
       <c r="C238" s="15"/>
@@ -4092,7 +4208,7 @@
       <c r="E238" s="13"/>
       <c r="F238" s="13"/>
     </row>
-    <row r="239" spans="1:6" ht="24.95" customHeight="1">
+    <row r="239" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="11"/>
       <c r="B239" s="14"/>
       <c r="C239" s="15"/>
@@ -4100,7 +4216,7 @@
       <c r="E239" s="13"/>
       <c r="F239" s="13"/>
     </row>
-    <row r="240" spans="1:6" ht="24.95" customHeight="1">
+    <row r="240" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="11"/>
       <c r="B240" s="14"/>
       <c r="C240" s="15"/>
@@ -4108,7 +4224,7 @@
       <c r="E240" s="13"/>
       <c r="F240" s="13"/>
     </row>
-    <row r="241" spans="1:6" ht="24.95" customHeight="1">
+    <row r="241" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="11"/>
       <c r="B241" s="14"/>
       <c r="C241" s="15"/>
@@ -4116,7 +4232,7 @@
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
     </row>
-    <row r="242" spans="1:6" ht="24.95" customHeight="1">
+    <row r="242" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="11"/>
       <c r="B242" s="14"/>
       <c r="C242" s="15"/>
@@ -4124,7 +4240,7 @@
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
     </row>
-    <row r="243" spans="1:6" ht="24.95" customHeight="1">
+    <row r="243" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="11"/>
       <c r="B243" s="14"/>
       <c r="C243" s="15"/>
@@ -4132,7 +4248,7 @@
       <c r="E243" s="13"/>
       <c r="F243" s="13"/>
     </row>
-    <row r="244" spans="1:6" ht="24.95" customHeight="1">
+    <row r="244" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="11"/>
       <c r="B244" s="14"/>
       <c r="C244" s="15"/>
@@ -4140,7 +4256,7 @@
       <c r="E244" s="13"/>
       <c r="F244" s="13"/>
     </row>
-    <row r="245" spans="1:6" ht="24.95" customHeight="1">
+    <row r="245" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="11"/>
       <c r="B245" s="14"/>
       <c r="C245" s="15"/>
@@ -4148,7 +4264,7 @@
       <c r="E245" s="13"/>
       <c r="F245" s="13"/>
     </row>
-    <row r="246" spans="1:6" ht="24.95" customHeight="1">
+    <row r="246" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="11"/>
       <c r="B246" s="14"/>
       <c r="C246" s="15"/>
@@ -4156,7 +4272,7 @@
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
     </row>
-    <row r="247" spans="1:6" ht="24.95" customHeight="1">
+    <row r="247" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="11"/>
       <c r="B247" s="14"/>
       <c r="C247" s="15"/>
@@ -4164,7 +4280,7 @@
       <c r="E247" s="13"/>
       <c r="F247" s="13"/>
     </row>
-    <row r="248" spans="1:6" ht="24.95" customHeight="1">
+    <row r="248" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="11"/>
       <c r="B248" s="14"/>
       <c r="C248" s="15"/>
@@ -4172,7 +4288,7 @@
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
     </row>
-    <row r="249" spans="1:6" ht="24.95" customHeight="1">
+    <row r="249" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="11"/>
       <c r="B249" s="14"/>
       <c r="C249" s="15"/>
@@ -4180,7 +4296,7 @@
       <c r="E249" s="13"/>
       <c r="F249" s="13"/>
     </row>
-    <row r="250" spans="1:6" ht="24.95" customHeight="1">
+    <row r="250" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="11"/>
       <c r="B250" s="14"/>
       <c r="C250" s="15"/>
@@ -4188,7 +4304,7 @@
       <c r="E250" s="13"/>
       <c r="F250" s="13"/>
     </row>
-    <row r="251" spans="1:6" ht="24.95" customHeight="1">
+    <row r="251" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="11"/>
       <c r="B251" s="14"/>
       <c r="C251" s="15"/>
@@ -4196,7 +4312,7 @@
       <c r="E251" s="13"/>
       <c r="F251" s="13"/>
     </row>
-    <row r="252" spans="1:6" ht="24.95" customHeight="1">
+    <row r="252" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="11"/>
       <c r="B252" s="14"/>
       <c r="C252" s="15"/>
@@ -4204,7 +4320,7 @@
       <c r="E252" s="13"/>
       <c r="F252" s="13"/>
     </row>
-    <row r="253" spans="1:6" ht="24.95" customHeight="1">
+    <row r="253" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="11"/>
       <c r="B253" s="14"/>
       <c r="C253" s="15"/>
@@ -4212,7 +4328,7 @@
       <c r="E253" s="13"/>
       <c r="F253" s="13"/>
     </row>
-    <row r="254" spans="1:6" ht="24.95" customHeight="1">
+    <row r="254" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="11"/>
       <c r="B254" s="14"/>
       <c r="C254" s="15"/>
@@ -4220,7 +4336,7 @@
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
     </row>
-    <row r="255" spans="1:6" ht="24.95" customHeight="1">
+    <row r="255" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="11"/>
       <c r="B255" s="14"/>
       <c r="C255" s="15"/>
@@ -4228,7 +4344,7 @@
       <c r="E255" s="13"/>
       <c r="F255" s="13"/>
     </row>
-    <row r="256" spans="1:6" ht="24.95" customHeight="1">
+    <row r="256" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="11"/>
       <c r="B256" s="14"/>
       <c r="C256" s="15"/>
@@ -4236,7 +4352,7 @@
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
     </row>
-    <row r="257" spans="1:6" ht="24.95" customHeight="1">
+    <row r="257" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="11"/>
       <c r="B257" s="14"/>
       <c r="C257" s="15"/>
@@ -4244,7 +4360,7 @@
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
     </row>
-    <row r="258" spans="1:6" ht="24.95" customHeight="1">
+    <row r="258" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="11"/>
       <c r="B258" s="14"/>
       <c r="C258" s="15"/>
@@ -4252,7 +4368,7 @@
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
     </row>
-    <row r="259" spans="1:6" ht="24.95" customHeight="1">
+    <row r="259" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="11"/>
       <c r="B259" s="14"/>
       <c r="C259" s="15"/>
@@ -4260,7 +4376,7 @@
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
     </row>
-    <row r="260" spans="1:6" ht="24.95" customHeight="1">
+    <row r="260" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="11"/>
       <c r="B260" s="14"/>
       <c r="C260" s="15"/>
@@ -4268,7 +4384,7 @@
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
     </row>
-    <row r="261" spans="1:6" ht="24.95" customHeight="1">
+    <row r="261" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="11"/>
       <c r="B261" s="14"/>
       <c r="C261" s="15"/>
@@ -4276,7 +4392,7 @@
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
     </row>
-    <row r="262" spans="1:6" ht="24.95" customHeight="1">
+    <row r="262" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="11"/>
       <c r="B262" s="14"/>
       <c r="C262" s="15"/>
@@ -4284,7 +4400,7 @@
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
     </row>
-    <row r="263" spans="1:6" ht="24.95" customHeight="1">
+    <row r="263" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="11"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -4292,7 +4408,7 @@
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
     </row>
-    <row r="264" spans="1:6" ht="24.95" customHeight="1">
+    <row r="264" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="11"/>
       <c r="B264" s="14"/>
       <c r="C264" s="15"/>
@@ -4300,7 +4416,7 @@
       <c r="E264" s="13"/>
       <c r="F264" s="13"/>
     </row>
-    <row r="265" spans="1:6" ht="24.95" customHeight="1">
+    <row r="265" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="11"/>
       <c r="B265" s="14"/>
       <c r="C265" s="15"/>
@@ -4308,7 +4424,7 @@
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
     </row>
-    <row r="266" spans="1:6" ht="24.95" customHeight="1">
+    <row r="266" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="11"/>
       <c r="B266" s="14"/>
       <c r="C266" s="15"/>
@@ -4316,7 +4432,7 @@
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
     </row>
-    <row r="267" spans="1:6" ht="24.95" customHeight="1">
+    <row r="267" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="11"/>
       <c r="B267" s="14"/>
       <c r="C267" s="15"/>
@@ -4324,7 +4440,7 @@
       <c r="E267" s="13"/>
       <c r="F267" s="13"/>
     </row>
-    <row r="268" spans="1:6" ht="24.95" customHeight="1">
+    <row r="268" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="11"/>
       <c r="B268" s="14"/>
       <c r="C268" s="15"/>
@@ -4332,7 +4448,7 @@
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
     </row>
-    <row r="269" spans="1:6" ht="24.95" customHeight="1">
+    <row r="269" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="11"/>
       <c r="B269" s="14"/>
       <c r="C269" s="15"/>
@@ -4340,7 +4456,7 @@
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
     </row>
-    <row r="270" spans="1:6" ht="24.95" customHeight="1">
+    <row r="270" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="11"/>
       <c r="B270" s="14"/>
       <c r="C270" s="15"/>
@@ -4348,7 +4464,7 @@
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
     </row>
-    <row r="271" spans="1:6" ht="24.95" customHeight="1">
+    <row r="271" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="11"/>
       <c r="B271" s="14"/>
       <c r="C271" s="15"/>
@@ -4356,7 +4472,7 @@
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
     </row>
-    <row r="272" spans="1:6" ht="24.95" customHeight="1">
+    <row r="272" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="11"/>
       <c r="B272" s="14"/>
       <c r="C272" s="15"/>
@@ -4364,7 +4480,7 @@
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
     </row>
-    <row r="273" spans="1:6" ht="24.95" customHeight="1">
+    <row r="273" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="11"/>
       <c r="B273" s="14"/>
       <c r="C273" s="15"/>
@@ -4372,7 +4488,7 @@
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
     </row>
-    <row r="274" spans="1:6" ht="24.95" customHeight="1">
+    <row r="274" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="11"/>
       <c r="B274" s="14"/>
       <c r="C274" s="15"/>
@@ -4380,7 +4496,7 @@
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
     </row>
-    <row r="275" spans="1:6" ht="24.95" customHeight="1">
+    <row r="275" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="11"/>
       <c r="B275" s="14"/>
       <c r="C275" s="15"/>
@@ -4388,7 +4504,7 @@
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
     </row>
-    <row r="276" spans="1:6" ht="24.95" customHeight="1">
+    <row r="276" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="11"/>
       <c r="B276" s="14"/>
       <c r="C276" s="15"/>
@@ -4396,7 +4512,7 @@
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
     </row>
-    <row r="277" spans="1:6" ht="24.95" customHeight="1">
+    <row r="277" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="11"/>
       <c r="B277" s="14"/>
       <c r="C277" s="15"/>
@@ -4404,7 +4520,7 @@
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
     </row>
-    <row r="278" spans="1:6" ht="24.95" customHeight="1">
+    <row r="278" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="11"/>
       <c r="B278" s="14"/>
       <c r="C278" s="15"/>
@@ -4412,7 +4528,7 @@
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
     </row>
-    <row r="279" spans="1:6" ht="24.95" customHeight="1">
+    <row r="279" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="11"/>
       <c r="B279" s="14"/>
       <c r="C279" s="15"/>
@@ -4420,7 +4536,7 @@
       <c r="E279" s="13"/>
       <c r="F279" s="13"/>
     </row>
-    <row r="280" spans="1:6" ht="24.95" customHeight="1">
+    <row r="280" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="11"/>
       <c r="B280" s="14"/>
       <c r="C280" s="15"/>
@@ -4428,7 +4544,7 @@
       <c r="E280" s="13"/>
       <c r="F280" s="13"/>
     </row>
-    <row r="281" spans="1:6" ht="24.95" customHeight="1">
+    <row r="281" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="11"/>
       <c r="B281" s="14"/>
       <c r="C281" s="15"/>
@@ -4436,7 +4552,7 @@
       <c r="E281" s="13"/>
       <c r="F281" s="13"/>
     </row>
-    <row r="282" spans="1:6" ht="24.95" customHeight="1">
+    <row r="282" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="11"/>
       <c r="B282" s="14"/>
       <c r="C282" s="15"/>
@@ -4444,7 +4560,7 @@
       <c r="E282" s="13"/>
       <c r="F282" s="13"/>
     </row>
-    <row r="283" spans="1:6" ht="24.95" customHeight="1">
+    <row r="283" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="11"/>
       <c r="B283" s="14"/>
       <c r="C283" s="15"/>
@@ -4452,7 +4568,7 @@
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
     </row>
-    <row r="284" spans="1:6" ht="24.95" customHeight="1">
+    <row r="284" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="11"/>
       <c r="B284" s="14"/>
       <c r="C284" s="15"/>
@@ -4460,7 +4576,7 @@
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
     </row>
-    <row r="285" spans="1:6" ht="24.95" customHeight="1">
+    <row r="285" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="11"/>
       <c r="B285" s="14"/>
       <c r="C285" s="15"/>
@@ -4468,7 +4584,7 @@
       <c r="E285" s="13"/>
       <c r="F285" s="13"/>
     </row>
-    <row r="286" spans="1:6" ht="24.95" customHeight="1">
+    <row r="286" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="11"/>
       <c r="B286" s="14"/>
       <c r="C286" s="15"/>
@@ -4476,7 +4592,7 @@
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
     </row>
-    <row r="287" spans="1:6" ht="24.95" customHeight="1">
+    <row r="287" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="11"/>
       <c r="B287" s="14"/>
       <c r="C287" s="15"/>
@@ -4484,7 +4600,7 @@
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
     </row>
-    <row r="288" spans="1:6" ht="24.95" customHeight="1">
+    <row r="288" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="11"/>
       <c r="B288" s="14"/>
       <c r="C288" s="15"/>
@@ -4492,7 +4608,7 @@
       <c r="E288" s="13"/>
       <c r="F288" s="13"/>
     </row>
-    <row r="289" spans="1:6" ht="24.95" customHeight="1">
+    <row r="289" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="11"/>
       <c r="B289" s="14"/>
       <c r="C289" s="15"/>
@@ -4500,7 +4616,7 @@
       <c r="E289" s="13"/>
       <c r="F289" s="13"/>
     </row>
-    <row r="290" spans="1:6" ht="24.95" customHeight="1">
+    <row r="290" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="11"/>
       <c r="B290" s="14"/>
       <c r="C290" s="15"/>
@@ -4508,7 +4624,7 @@
       <c r="E290" s="13"/>
       <c r="F290" s="13"/>
     </row>
-    <row r="291" spans="1:6" ht="24.95" customHeight="1">
+    <row r="291" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="11"/>
       <c r="B291" s="14"/>
       <c r="C291" s="15"/>
@@ -4516,7 +4632,7 @@
       <c r="E291" s="13"/>
       <c r="F291" s="13"/>
     </row>
-    <row r="292" spans="1:6" ht="24.95" customHeight="1">
+    <row r="292" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="11"/>
       <c r="B292" s="14"/>
       <c r="C292" s="15"/>
@@ -4524,7 +4640,7 @@
       <c r="E292" s="13"/>
       <c r="F292" s="13"/>
     </row>
-    <row r="293" spans="1:6" ht="24.95" customHeight="1">
+    <row r="293" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="11"/>
       <c r="B293" s="14"/>
       <c r="C293" s="15"/>
@@ -4532,7 +4648,7 @@
       <c r="E293" s="13"/>
       <c r="F293" s="13"/>
     </row>
-    <row r="294" spans="1:6" ht="24.95" customHeight="1">
+    <row r="294" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="11"/>
       <c r="B294" s="14"/>
       <c r="C294" s="15"/>
@@ -4540,7 +4656,7 @@
       <c r="E294" s="13"/>
       <c r="F294" s="13"/>
     </row>
-    <row r="295" spans="1:6" ht="24.95" customHeight="1">
+    <row r="295" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="11"/>
       <c r="B295" s="14"/>
       <c r="C295" s="15"/>
@@ -4548,7 +4664,7 @@
       <c r="E295" s="13"/>
       <c r="F295" s="13"/>
     </row>
-    <row r="296" spans="1:6" ht="24.95" customHeight="1">
+    <row r="296" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="11"/>
       <c r="B296" s="14"/>
       <c r="C296" s="15"/>
@@ -4556,7 +4672,7 @@
       <c r="E296" s="13"/>
       <c r="F296" s="13"/>
     </row>
-    <row r="297" spans="1:6" ht="24.95" customHeight="1">
+    <row r="297" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="11"/>
       <c r="B297" s="14"/>
       <c r="C297" s="15"/>
@@ -4564,7 +4680,7 @@
       <c r="E297" s="13"/>
       <c r="F297" s="13"/>
     </row>
-    <row r="298" spans="1:6" ht="24.95" customHeight="1">
+    <row r="298" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="11"/>
       <c r="B298" s="14"/>
       <c r="C298" s="15"/>
@@ -4572,7 +4688,7 @@
       <c r="E298" s="13"/>
       <c r="F298" s="13"/>
     </row>
-    <row r="299" spans="1:6" ht="24.95" customHeight="1">
+    <row r="299" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="11"/>
       <c r="B299" s="14"/>
       <c r="C299" s="15"/>
@@ -4580,7 +4696,7 @@
       <c r="E299" s="13"/>
       <c r="F299" s="13"/>
     </row>
-    <row r="300" spans="1:6" ht="24.95" customHeight="1">
+    <row r="300" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="11"/>
       <c r="B300" s="14"/>
       <c r="C300" s="15"/>
@@ -4588,7 +4704,7 @@
       <c r="E300" s="13"/>
       <c r="F300" s="13"/>
     </row>
-    <row r="301" spans="1:6" ht="24.95" customHeight="1">
+    <row r="301" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="11"/>
       <c r="B301" s="14"/>
       <c r="C301" s="15"/>
@@ -4596,7 +4712,7 @@
       <c r="E301" s="13"/>
       <c r="F301" s="13"/>
     </row>
-    <row r="302" spans="1:6" ht="24.95" customHeight="1">
+    <row r="302" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="11"/>
       <c r="B302" s="14"/>
       <c r="C302" s="15"/>
@@ -4604,7 +4720,7 @@
       <c r="E302" s="13"/>
       <c r="F302" s="13"/>
     </row>
-    <row r="303" spans="1:6" ht="24.95" customHeight="1">
+    <row r="303" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="11"/>
       <c r="B303" s="14"/>
       <c r="C303" s="15"/>
@@ -4612,7 +4728,7 @@
       <c r="E303" s="13"/>
       <c r="F303" s="13"/>
     </row>
-    <row r="304" spans="1:6" ht="24.95" customHeight="1">
+    <row r="304" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="11"/>
       <c r="B304" s="14"/>
       <c r="C304" s="15"/>
@@ -4620,7 +4736,7 @@
       <c r="E304" s="13"/>
       <c r="F304" s="13"/>
     </row>
-    <row r="305" spans="1:6" ht="24.95" customHeight="1">
+    <row r="305" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="11"/>
       <c r="B305" s="14"/>
       <c r="C305" s="15"/>
@@ -4628,7 +4744,7 @@
       <c r="E305" s="13"/>
       <c r="F305" s="13"/>
     </row>
-    <row r="306" spans="1:6" ht="24.95" customHeight="1">
+    <row r="306" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="11"/>
       <c r="B306" s="14"/>
       <c r="C306" s="15"/>
@@ -4636,7 +4752,7 @@
       <c r="E306" s="13"/>
       <c r="F306" s="13"/>
     </row>
-    <row r="307" spans="1:6" ht="24.95" customHeight="1">
+    <row r="307" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="11"/>
       <c r="B307" s="14"/>
       <c r="C307" s="15"/>
@@ -4644,7 +4760,7 @@
       <c r="E307" s="13"/>
       <c r="F307" s="13"/>
     </row>
-    <row r="308" spans="1:6" ht="24.95" customHeight="1">
+    <row r="308" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="11"/>
       <c r="B308" s="14"/>
       <c r="C308" s="15"/>
@@ -4652,7 +4768,7 @@
       <c r="E308" s="13"/>
       <c r="F308" s="13"/>
     </row>
-    <row r="309" spans="1:6" ht="24.95" customHeight="1">
+    <row r="309" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="11"/>
       <c r="B309" s="14"/>
       <c r="C309" s="15"/>
@@ -4660,7 +4776,7 @@
       <c r="E309" s="13"/>
       <c r="F309" s="13"/>
     </row>
-    <row r="310" spans="1:6" ht="24.95" customHeight="1">
+    <row r="310" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="11"/>
       <c r="B310" s="14"/>
       <c r="C310" s="15"/>
@@ -4668,7 +4784,7 @@
       <c r="E310" s="13"/>
       <c r="F310" s="13"/>
     </row>
-    <row r="311" spans="1:6" ht="24.95" customHeight="1">
+    <row r="311" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="11"/>
       <c r="B311" s="14"/>
       <c r="C311" s="15"/>
@@ -4676,7 +4792,7 @@
       <c r="E311" s="13"/>
       <c r="F311" s="13"/>
     </row>
-    <row r="312" spans="1:6" ht="24.95" customHeight="1">
+    <row r="312" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="11"/>
       <c r="B312" s="14"/>
       <c r="C312" s="15"/>
@@ -4684,7 +4800,7 @@
       <c r="E312" s="13"/>
       <c r="F312" s="13"/>
     </row>
-    <row r="313" spans="1:6" ht="24.95" customHeight="1">
+    <row r="313" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="11"/>
       <c r="B313" s="14"/>
       <c r="C313" s="15"/>
@@ -4692,7 +4808,7 @@
       <c r="E313" s="13"/>
       <c r="F313" s="13"/>
     </row>
-    <row r="314" spans="1:6" ht="24.95" customHeight="1">
+    <row r="314" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="11"/>
       <c r="B314" s="14"/>
       <c r="C314" s="15"/>
@@ -4700,7 +4816,7 @@
       <c r="E314" s="13"/>
       <c r="F314" s="13"/>
     </row>
-    <row r="315" spans="1:6" ht="24.95" customHeight="1">
+    <row r="315" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="11"/>
       <c r="B315" s="14"/>
       <c r="C315" s="15"/>
@@ -4708,7 +4824,7 @@
       <c r="E315" s="13"/>
       <c r="F315" s="13"/>
     </row>
-    <row r="316" spans="1:6" ht="24.95" customHeight="1">
+    <row r="316" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="11"/>
       <c r="B316" s="14"/>
       <c r="C316" s="15"/>
@@ -4716,7 +4832,7 @@
       <c r="E316" s="13"/>
       <c r="F316" s="13"/>
     </row>
-    <row r="317" spans="1:6" ht="24.95" customHeight="1">
+    <row r="317" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="11"/>
       <c r="B317" s="14"/>
       <c r="C317" s="15"/>
@@ -4724,7 +4840,7 @@
       <c r="E317" s="13"/>
       <c r="F317" s="13"/>
     </row>
-    <row r="318" spans="1:6" ht="24.95" customHeight="1">
+    <row r="318" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="11"/>
       <c r="B318" s="14"/>
       <c r="C318" s="15"/>
@@ -4732,7 +4848,7 @@
       <c r="E318" s="13"/>
       <c r="F318" s="13"/>
     </row>
-    <row r="319" spans="1:6" ht="24.95" customHeight="1">
+    <row r="319" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="11"/>
       <c r="B319" s="14"/>
       <c r="C319" s="15"/>
@@ -4740,7 +4856,7 @@
       <c r="E319" s="13"/>
       <c r="F319" s="13"/>
     </row>
-    <row r="320" spans="1:6" ht="24.95" customHeight="1">
+    <row r="320" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="11"/>
       <c r="B320" s="14"/>
       <c r="C320" s="15"/>
@@ -4748,7 +4864,7 @@
       <c r="E320" s="13"/>
       <c r="F320" s="13"/>
     </row>
-    <row r="321" spans="1:6" ht="24.95" customHeight="1">
+    <row r="321" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="11"/>
       <c r="B321" s="14"/>
       <c r="C321" s="15"/>
@@ -4756,7 +4872,7 @@
       <c r="E321" s="13"/>
       <c r="F321" s="13"/>
     </row>
-    <row r="322" spans="1:6" ht="24.95" customHeight="1">
+    <row r="322" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="11"/>
       <c r="B322" s="14"/>
       <c r="C322" s="15"/>
@@ -4764,7 +4880,7 @@
       <c r="E322" s="13"/>
       <c r="F322" s="13"/>
     </row>
-    <row r="323" spans="1:6" ht="24.95" customHeight="1">
+    <row r="323" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="11"/>
       <c r="B323" s="14"/>
       <c r="C323" s="15"/>
@@ -4772,7 +4888,7 @@
       <c r="E323" s="13"/>
       <c r="F323" s="13"/>
     </row>
-    <row r="324" spans="1:6" ht="24.95" customHeight="1">
+    <row r="324" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="11"/>
       <c r="B324" s="14"/>
       <c r="C324" s="15"/>
@@ -4780,7 +4896,7 @@
       <c r="E324" s="13"/>
       <c r="F324" s="13"/>
     </row>
-    <row r="325" spans="1:6" ht="24.95" customHeight="1">
+    <row r="325" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="11"/>
       <c r="B325" s="14"/>
       <c r="C325" s="15"/>
@@ -4788,7 +4904,7 @@
       <c r="E325" s="13"/>
       <c r="F325" s="13"/>
     </row>
-    <row r="326" spans="1:6" ht="24.95" customHeight="1">
+    <row r="326" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="11"/>
       <c r="B326" s="14"/>
       <c r="C326" s="15"/>
@@ -4796,7 +4912,7 @@
       <c r="E326" s="13"/>
       <c r="F326" s="13"/>
     </row>
-    <row r="327" spans="1:6" ht="24.95" customHeight="1">
+    <row r="327" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="11"/>
       <c r="B327" s="14"/>
       <c r="C327" s="15"/>
@@ -4804,7 +4920,7 @@
       <c r="E327" s="13"/>
       <c r="F327" s="13"/>
     </row>
-    <row r="328" spans="1:6" ht="24.95" customHeight="1">
+    <row r="328" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="11"/>
       <c r="B328" s="14"/>
       <c r="C328" s="15"/>
@@ -4812,7 +4928,7 @@
       <c r="E328" s="13"/>
       <c r="F328" s="13"/>
     </row>
-    <row r="329" spans="1:6" ht="24.95" customHeight="1">
+    <row r="329" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="11"/>
       <c r="B329" s="14"/>
       <c r="C329" s="15"/>
@@ -4820,7 +4936,7 @@
       <c r="E329" s="13"/>
       <c r="F329" s="13"/>
     </row>
-    <row r="330" spans="1:6" ht="24.95" customHeight="1">
+    <row r="330" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="11"/>
       <c r="B330" s="14"/>
       <c r="C330" s="15"/>
@@ -4828,7 +4944,7 @@
       <c r="E330" s="13"/>
       <c r="F330" s="13"/>
     </row>
-    <row r="331" spans="1:6" ht="24.95" customHeight="1">
+    <row r="331" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="11"/>
       <c r="B331" s="14"/>
       <c r="C331" s="15"/>
@@ -4836,7 +4952,7 @@
       <c r="E331" s="13"/>
       <c r="F331" s="13"/>
     </row>
-    <row r="332" spans="1:6" ht="24.95" customHeight="1">
+    <row r="332" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="11"/>
       <c r="B332" s="14"/>
       <c r="C332" s="15"/>
@@ -4844,7 +4960,7 @@
       <c r="E332" s="13"/>
       <c r="F332" s="13"/>
     </row>
-    <row r="333" spans="1:6" ht="24.95" customHeight="1">
+    <row r="333" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="11"/>
       <c r="B333" s="14"/>
       <c r="C333" s="15"/>
@@ -4852,7 +4968,7 @@
       <c r="E333" s="13"/>
       <c r="F333" s="13"/>
     </row>
-    <row r="334" spans="1:6" ht="24.95" customHeight="1">
+    <row r="334" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="11"/>
       <c r="B334" s="14"/>
       <c r="C334" s="15"/>
@@ -4860,7 +4976,7 @@
       <c r="E334" s="13"/>
       <c r="F334" s="13"/>
     </row>
-    <row r="335" spans="1:6" ht="24.95" customHeight="1">
+    <row r="335" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="11"/>
       <c r="B335" s="14"/>
       <c r="C335" s="15"/>
@@ -4868,7 +4984,7 @@
       <c r="E335" s="13"/>
       <c r="F335" s="13"/>
     </row>
-    <row r="336" spans="1:6" ht="24.95" customHeight="1">
+    <row r="336" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="11"/>
       <c r="B336" s="14"/>
       <c r="C336" s="15"/>
@@ -4876,7 +4992,7 @@
       <c r="E336" s="13"/>
       <c r="F336" s="13"/>
     </row>
-    <row r="337" spans="1:6" ht="24.95" customHeight="1">
+    <row r="337" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="11"/>
       <c r="B337" s="14"/>
       <c r="C337" s="15"/>
@@ -4884,7 +5000,7 @@
       <c r="E337" s="13"/>
       <c r="F337" s="13"/>
     </row>
-    <row r="338" spans="1:6" ht="24.95" customHeight="1">
+    <row r="338" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="11"/>
       <c r="B338" s="14"/>
       <c r="C338" s="15"/>
@@ -4892,7 +5008,7 @@
       <c r="E338" s="13"/>
       <c r="F338" s="13"/>
     </row>
-    <row r="339" spans="1:6" ht="24.95" customHeight="1">
+    <row r="339" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="11"/>
       <c r="B339" s="14"/>
       <c r="C339" s="15"/>
@@ -4900,7 +5016,7 @@
       <c r="E339" s="13"/>
       <c r="F339" s="13"/>
     </row>
-    <row r="340" spans="1:6" ht="24.95" customHeight="1">
+    <row r="340" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="11"/>
       <c r="B340" s="14"/>
       <c r="C340" s="15"/>
@@ -4908,7 +5024,7 @@
       <c r="E340" s="13"/>
       <c r="F340" s="13"/>
     </row>
-    <row r="341" spans="1:6" ht="24.95" customHeight="1">
+    <row r="341" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="11"/>
       <c r="B341" s="14"/>
       <c r="C341" s="15"/>
@@ -4916,7 +5032,7 @@
       <c r="E341" s="13"/>
       <c r="F341" s="13"/>
     </row>
-    <row r="342" spans="1:6" ht="24.95" customHeight="1">
+    <row r="342" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="11"/>
       <c r="B342" s="14"/>
       <c r="C342" s="15"/>
@@ -4924,7 +5040,7 @@
       <c r="E342" s="13"/>
       <c r="F342" s="13"/>
     </row>
-    <row r="343" spans="1:6" ht="24.95" customHeight="1">
+    <row r="343" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="11"/>
       <c r="B343" s="14"/>
       <c r="C343" s="15"/>
@@ -4932,7 +5048,7 @@
       <c r="E343" s="13"/>
       <c r="F343" s="13"/>
     </row>
-    <row r="344" spans="1:6" ht="24.95" customHeight="1">
+    <row r="344" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="11"/>
       <c r="B344" s="14"/>
       <c r="C344" s="15"/>
@@ -4940,7 +5056,7 @@
       <c r="E344" s="13"/>
       <c r="F344" s="13"/>
     </row>
-    <row r="345" spans="1:6" ht="24.95" customHeight="1">
+    <row r="345" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="11"/>
       <c r="B345" s="14"/>
       <c r="C345" s="15"/>
@@ -4948,7 +5064,7 @@
       <c r="E345" s="13"/>
       <c r="F345" s="13"/>
     </row>
-    <row r="346" spans="1:6" ht="24.95" customHeight="1">
+    <row r="346" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="11"/>
       <c r="B346" s="14"/>
       <c r="C346" s="15"/>
@@ -4956,7 +5072,7 @@
       <c r="E346" s="13"/>
       <c r="F346" s="13"/>
     </row>
-    <row r="347" spans="1:6" ht="24.95" customHeight="1">
+    <row r="347" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="11"/>
       <c r="B347" s="14"/>
       <c r="C347" s="15"/>
@@ -4964,7 +5080,7 @@
       <c r="E347" s="13"/>
       <c r="F347" s="13"/>
     </row>
-    <row r="348" spans="1:6" ht="24.95" customHeight="1">
+    <row r="348" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="11"/>
       <c r="B348" s="14"/>
       <c r="C348" s="15"/>
@@ -4972,7 +5088,7 @@
       <c r="E348" s="13"/>
       <c r="F348" s="13"/>
     </row>
-    <row r="349" spans="1:6" ht="24.95" customHeight="1">
+    <row r="349" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="11"/>
       <c r="B349" s="14"/>
       <c r="C349" s="15"/>
@@ -4980,7 +5096,7 @@
       <c r="E349" s="13"/>
       <c r="F349" s="13"/>
     </row>
-    <row r="350" spans="1:6" ht="24.95" customHeight="1">
+    <row r="350" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="11"/>
       <c r="B350" s="14"/>
       <c r="C350" s="15"/>
@@ -4988,7 +5104,7 @@
       <c r="E350" s="13"/>
       <c r="F350" s="13"/>
     </row>
-    <row r="351" spans="1:6" ht="24.95" customHeight="1">
+    <row r="351" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="11"/>
       <c r="B351" s="14"/>
       <c r="C351" s="15"/>
@@ -4996,7 +5112,7 @@
       <c r="E351" s="13"/>
       <c r="F351" s="13"/>
     </row>
-    <row r="352" spans="1:6" ht="24.95" customHeight="1">
+    <row r="352" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="11"/>
       <c r="B352" s="14"/>
       <c r="C352" s="15"/>
@@ -5004,7 +5120,7 @@
       <c r="E352" s="13"/>
       <c r="F352" s="13"/>
     </row>
-    <row r="353" spans="1:6" ht="24.95" customHeight="1">
+    <row r="353" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="11"/>
       <c r="B353" s="14"/>
       <c r="C353" s="15"/>
@@ -5012,7 +5128,7 @@
       <c r="E353" s="13"/>
       <c r="F353" s="13"/>
     </row>
-    <row r="354" spans="1:6" ht="24.95" customHeight="1">
+    <row r="354" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="11"/>
       <c r="B354" s="14"/>
       <c r="C354" s="15"/>
@@ -5020,7 +5136,7 @@
       <c r="E354" s="13"/>
       <c r="F354" s="13"/>
     </row>
-    <row r="355" spans="1:6" ht="24.95" customHeight="1">
+    <row r="355" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="11"/>
       <c r="B355" s="14"/>
       <c r="C355" s="15"/>
@@ -5028,7 +5144,7 @@
       <c r="E355" s="13"/>
       <c r="F355" s="13"/>
     </row>
-    <row r="356" spans="1:6" ht="24.95" customHeight="1">
+    <row r="356" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="11"/>
       <c r="B356" s="14"/>
       <c r="C356" s="15"/>
@@ -5036,7 +5152,7 @@
       <c r="E356" s="13"/>
       <c r="F356" s="13"/>
     </row>
-    <row r="357" spans="1:6" ht="24.95" customHeight="1">
+    <row r="357" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="11"/>
       <c r="B357" s="14"/>
       <c r="C357" s="15"/>
@@ -5044,7 +5160,7 @@
       <c r="E357" s="13"/>
       <c r="F357" s="13"/>
     </row>
-    <row r="358" spans="1:6" ht="24.95" customHeight="1">
+    <row r="358" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="11"/>
       <c r="B358" s="14"/>
       <c r="C358" s="15"/>
@@ -5052,7 +5168,7 @@
       <c r="E358" s="13"/>
       <c r="F358" s="13"/>
     </row>
-    <row r="359" spans="1:6" ht="24.95" customHeight="1">
+    <row r="359" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="11"/>
       <c r="B359" s="14"/>
       <c r="C359" s="15"/>
@@ -5060,7 +5176,7 @@
       <c r="E359" s="13"/>
       <c r="F359" s="13"/>
     </row>
-    <row r="360" spans="1:6" ht="24.95" customHeight="1">
+    <row r="360" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="11"/>
       <c r="B360" s="14"/>
       <c r="C360" s="15"/>
@@ -5068,7 +5184,7 @@
       <c r="E360" s="13"/>
       <c r="F360" s="13"/>
     </row>
-    <row r="361" spans="1:6" ht="24.95" customHeight="1">
+    <row r="361" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="11"/>
       <c r="B361" s="14"/>
       <c r="C361" s="15"/>
@@ -5076,7 +5192,7 @@
       <c r="E361" s="13"/>
       <c r="F361" s="13"/>
     </row>
-    <row r="362" spans="1:6" ht="24.95" customHeight="1">
+    <row r="362" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="11"/>
       <c r="B362" s="14"/>
       <c r="C362" s="15"/>
@@ -5084,7 +5200,7 @@
       <c r="E362" s="13"/>
       <c r="F362" s="13"/>
     </row>
-    <row r="363" spans="1:6" ht="24.95" customHeight="1">
+    <row r="363" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="11"/>
       <c r="B363" s="14"/>
       <c r="C363" s="15"/>
@@ -5092,7 +5208,7 @@
       <c r="E363" s="13"/>
       <c r="F363" s="13"/>
     </row>
-    <row r="364" spans="1:6" ht="24.95" customHeight="1">
+    <row r="364" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="11"/>
       <c r="B364" s="14"/>
       <c r="C364" s="15"/>
@@ -5100,7 +5216,7 @@
       <c r="E364" s="13"/>
       <c r="F364" s="13"/>
     </row>
-    <row r="365" spans="1:6" ht="24.95" customHeight="1">
+    <row r="365" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="11"/>
       <c r="B365" s="14"/>
       <c r="C365" s="15"/>
@@ -5108,7 +5224,7 @@
       <c r="E365" s="13"/>
       <c r="F365" s="13"/>
     </row>
-    <row r="366" spans="1:6" ht="24.95" customHeight="1">
+    <row r="366" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="11"/>
       <c r="B366" s="14"/>
       <c r="C366" s="15"/>
@@ -5116,7 +5232,7 @@
       <c r="E366" s="13"/>
       <c r="F366" s="13"/>
     </row>
-    <row r="367" spans="1:6" ht="24.95" customHeight="1">
+    <row r="367" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="11"/>
       <c r="B367" s="14"/>
       <c r="C367" s="15"/>
@@ -5124,7 +5240,7 @@
       <c r="E367" s="13"/>
       <c r="F367" s="13"/>
     </row>
-    <row r="368" spans="1:6" ht="24.95" customHeight="1">
+    <row r="368" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="11"/>
       <c r="B368" s="14"/>
       <c r="C368" s="15"/>
@@ -5132,7 +5248,7 @@
       <c r="E368" s="13"/>
       <c r="F368" s="13"/>
     </row>
-    <row r="369" spans="1:6" ht="24.95" customHeight="1">
+    <row r="369" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="11"/>
       <c r="B369" s="14"/>
       <c r="C369" s="15"/>
@@ -5140,7 +5256,7 @@
       <c r="E369" s="13"/>
       <c r="F369" s="13"/>
     </row>
-    <row r="370" spans="1:6" ht="24.95" customHeight="1">
+    <row r="370" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="11"/>
       <c r="B370" s="14"/>
       <c r="C370" s="15"/>
@@ -5148,7 +5264,7 @@
       <c r="E370" s="13"/>
       <c r="F370" s="13"/>
     </row>
-    <row r="371" spans="1:6" ht="24.95" customHeight="1">
+    <row r="371" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="11"/>
       <c r="B371" s="14"/>
       <c r="C371" s="15"/>
@@ -5156,7 +5272,7 @@
       <c r="E371" s="13"/>
       <c r="F371" s="13"/>
     </row>
-    <row r="372" spans="1:6" ht="24.95" customHeight="1">
+    <row r="372" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="11"/>
       <c r="B372" s="14"/>
       <c r="C372" s="15"/>
@@ -5164,7 +5280,7 @@
       <c r="E372" s="13"/>
       <c r="F372" s="13"/>
     </row>
-    <row r="373" spans="1:6" ht="24.95" customHeight="1">
+    <row r="373" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="11"/>
       <c r="B373" s="14"/>
       <c r="C373" s="15"/>
@@ -5172,7 +5288,7 @@
       <c r="E373" s="13"/>
       <c r="F373" s="13"/>
     </row>
-    <row r="374" spans="1:6" ht="24.95" customHeight="1">
+    <row r="374" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="11"/>
       <c r="B374" s="14"/>
       <c r="C374" s="15"/>
@@ -5180,7 +5296,7 @@
       <c r="E374" s="13"/>
       <c r="F374" s="13"/>
     </row>
-    <row r="375" spans="1:6" ht="24.95" customHeight="1">
+    <row r="375" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="11"/>
       <c r="B375" s="14"/>
       <c r="C375" s="15"/>
@@ -5188,7 +5304,7 @@
       <c r="E375" s="13"/>
       <c r="F375" s="13"/>
     </row>
-    <row r="376" spans="1:6" ht="24.95" customHeight="1">
+    <row r="376" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="11"/>
       <c r="B376" s="14"/>
       <c r="C376" s="15"/>
@@ -5196,7 +5312,7 @@
       <c r="E376" s="13"/>
       <c r="F376" s="13"/>
     </row>
-    <row r="377" spans="1:6" ht="24.95" customHeight="1">
+    <row r="377" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="11"/>
       <c r="B377" s="14"/>
       <c r="C377" s="15"/>
@@ -5204,7 +5320,7 @@
       <c r="E377" s="13"/>
       <c r="F377" s="13"/>
     </row>
-    <row r="378" spans="1:6" ht="24.95" customHeight="1">
+    <row r="378" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="11"/>
       <c r="B378" s="14"/>
       <c r="C378" s="15"/>
@@ -5212,7 +5328,7 @@
       <c r="E378" s="13"/>
       <c r="F378" s="13"/>
     </row>
-    <row r="379" spans="1:6" ht="24.95" customHeight="1">
+    <row r="379" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="11"/>
       <c r="B379" s="14"/>
       <c r="C379" s="15"/>
@@ -5220,7 +5336,7 @@
       <c r="E379" s="13"/>
       <c r="F379" s="13"/>
     </row>
-    <row r="380" spans="1:6" ht="24.95" customHeight="1">
+    <row r="380" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="11"/>
       <c r="B380" s="14"/>
       <c r="C380" s="15"/>
@@ -5228,7 +5344,7 @@
       <c r="E380" s="13"/>
       <c r="F380" s="13"/>
     </row>
-    <row r="381" spans="1:6" ht="24.95" customHeight="1">
+    <row r="381" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="11"/>
       <c r="B381" s="14"/>
       <c r="C381" s="15"/>
@@ -5236,7 +5352,7 @@
       <c r="E381" s="13"/>
       <c r="F381" s="13"/>
     </row>
-    <row r="382" spans="1:6" ht="24.95" customHeight="1">
+    <row r="382" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="11"/>
       <c r="B382" s="14"/>
       <c r="C382" s="15"/>
@@ -5244,7 +5360,7 @@
       <c r="E382" s="13"/>
       <c r="F382" s="13"/>
     </row>
-    <row r="383" spans="1:6" ht="24.95" customHeight="1">
+    <row r="383" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="11"/>
       <c r="B383" s="14"/>
       <c r="C383" s="15"/>
@@ -5252,7 +5368,7 @@
       <c r="E383" s="13"/>
       <c r="F383" s="13"/>
     </row>
-    <row r="384" spans="1:6" ht="24.95" customHeight="1">
+    <row r="384" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="11"/>
       <c r="B384" s="14"/>
       <c r="C384" s="15"/>
@@ -5260,7 +5376,7 @@
       <c r="E384" s="13"/>
       <c r="F384" s="13"/>
     </row>
-    <row r="385" spans="1:6" ht="24.95" customHeight="1">
+    <row r="385" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="11"/>
       <c r="B385" s="14"/>
       <c r="C385" s="15"/>
@@ -5268,7 +5384,7 @@
       <c r="E385" s="13"/>
       <c r="F385" s="13"/>
     </row>
-    <row r="386" spans="1:6" ht="24.95" customHeight="1">
+    <row r="386" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="11"/>
       <c r="B386" s="14"/>
       <c r="C386" s="15"/>
@@ -5276,7 +5392,7 @@
       <c r="E386" s="13"/>
       <c r="F386" s="13"/>
     </row>
-    <row r="387" spans="1:6" ht="24.95" customHeight="1">
+    <row r="387" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="11"/>
       <c r="B387" s="14"/>
       <c r="C387" s="15"/>
@@ -5284,7 +5400,7 @@
       <c r="E387" s="13"/>
       <c r="F387" s="13"/>
     </row>
-    <row r="388" spans="1:6" ht="24.95" customHeight="1">
+    <row r="388" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="11"/>
       <c r="B388" s="14"/>
       <c r="C388" s="15"/>
@@ -5292,7 +5408,7 @@
       <c r="E388" s="13"/>
       <c r="F388" s="13"/>
     </row>
-    <row r="389" spans="1:6" ht="24.95" customHeight="1">
+    <row r="389" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="11"/>
       <c r="B389" s="14"/>
       <c r="C389" s="15"/>
@@ -5300,7 +5416,7 @@
       <c r="E389" s="13"/>
       <c r="F389" s="13"/>
     </row>
-    <row r="390" spans="1:6" ht="24.95" customHeight="1">
+    <row r="390" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="11"/>
       <c r="B390" s="14"/>
       <c r="C390" s="15"/>
@@ -5308,7 +5424,7 @@
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
     </row>
-    <row r="391" spans="1:6" ht="24.95" customHeight="1">
+    <row r="391" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="11"/>
       <c r="B391" s="14"/>
       <c r="C391" s="15"/>
@@ -5316,7 +5432,7 @@
       <c r="E391" s="13"/>
       <c r="F391" s="13"/>
     </row>
-    <row r="392" spans="1:6" ht="24.95" customHeight="1">
+    <row r="392" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="11"/>
       <c r="B392" s="14"/>
       <c r="C392" s="15"/>
@@ -5324,7 +5440,7 @@
       <c r="E392" s="13"/>
       <c r="F392" s="13"/>
     </row>
-    <row r="393" spans="1:6" ht="24.95" customHeight="1">
+    <row r="393" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="11"/>
       <c r="B393" s="14"/>
       <c r="C393" s="15"/>
@@ -5332,7 +5448,7 @@
       <c r="E393" s="13"/>
       <c r="F393" s="13"/>
     </row>
-    <row r="394" spans="1:6" ht="24.95" customHeight="1">
+    <row r="394" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="11"/>
       <c r="B394" s="14"/>
       <c r="C394" s="15"/>
@@ -5340,7 +5456,7 @@
       <c r="E394" s="13"/>
       <c r="F394" s="13"/>
     </row>
-    <row r="395" spans="1:6" ht="24.95" customHeight="1">
+    <row r="395" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="11"/>
       <c r="B395" s="14"/>
       <c r="C395" s="15"/>
@@ -5348,7 +5464,7 @@
       <c r="E395" s="13"/>
       <c r="F395" s="13"/>
     </row>
-    <row r="396" spans="1:6" ht="24.95" customHeight="1">
+    <row r="396" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="11"/>
       <c r="B396" s="14"/>
       <c r="C396" s="15"/>
@@ -5356,7 +5472,7 @@
       <c r="E396" s="13"/>
       <c r="F396" s="13"/>
     </row>
-    <row r="397" spans="1:6" ht="24.95" customHeight="1">
+    <row r="397" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="11"/>
       <c r="B397" s="14"/>
       <c r="C397" s="15"/>
@@ -5364,7 +5480,7 @@
       <c r="E397" s="13"/>
       <c r="F397" s="13"/>
     </row>
-    <row r="398" spans="1:6" ht="24.95" customHeight="1">
+    <row r="398" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="11"/>
       <c r="B398" s="14"/>
       <c r="C398" s="15"/>
@@ -5372,7 +5488,7 @@
       <c r="E398" s="13"/>
       <c r="F398" s="13"/>
     </row>
-    <row r="399" spans="1:6" ht="24.95" customHeight="1">
+    <row r="399" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="11"/>
       <c r="B399" s="14"/>
       <c r="C399" s="15"/>
@@ -5380,7 +5496,7 @@
       <c r="E399" s="13"/>
       <c r="F399" s="13"/>
     </row>
-    <row r="400" spans="1:6" ht="24.95" customHeight="1">
+    <row r="400" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="11"/>
       <c r="B400" s="14"/>
       <c r="C400" s="15"/>
@@ -5388,7 +5504,7 @@
       <c r="E400" s="13"/>
       <c r="F400" s="13"/>
     </row>
-    <row r="401" spans="1:6" ht="24.95" customHeight="1">
+    <row r="401" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="11"/>
       <c r="B401" s="14"/>
       <c r="C401" s="15"/>
@@ -5396,7 +5512,7 @@
       <c r="E401" s="13"/>
       <c r="F401" s="13"/>
     </row>
-    <row r="402" spans="1:6" ht="24.95" customHeight="1">
+    <row r="402" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="11"/>
       <c r="B402" s="14"/>
       <c r="C402" s="15"/>
@@ -5404,7 +5520,7 @@
       <c r="E402" s="13"/>
       <c r="F402" s="13"/>
     </row>
-    <row r="403" spans="1:6" ht="24.95" customHeight="1">
+    <row r="403" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="11"/>
       <c r="B403" s="14"/>
       <c r="C403" s="15"/>
@@ -5412,7 +5528,7 @@
       <c r="E403" s="13"/>
       <c r="F403" s="13"/>
     </row>
-    <row r="404" spans="1:6" ht="24.95" customHeight="1">
+    <row r="404" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="11"/>
       <c r="B404" s="14"/>
       <c r="C404" s="15"/>
@@ -5420,7 +5536,7 @@
       <c r="E404" s="13"/>
       <c r="F404" s="13"/>
     </row>
-    <row r="405" spans="1:6" ht="24.95" customHeight="1">
+    <row r="405" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="11"/>
       <c r="B405" s="14"/>
       <c r="C405" s="15"/>
@@ -5428,7 +5544,7 @@
       <c r="E405" s="13"/>
       <c r="F405" s="13"/>
     </row>
-    <row r="406" spans="1:6" ht="24.95" customHeight="1">
+    <row r="406" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="11"/>
       <c r="B406" s="14"/>
       <c r="C406" s="15"/>
@@ -5436,7 +5552,7 @@
       <c r="E406" s="13"/>
       <c r="F406" s="13"/>
     </row>
-    <row r="407" spans="1:6" ht="24.95" customHeight="1">
+    <row r="407" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="11"/>
       <c r="B407" s="14"/>
       <c r="C407" s="15"/>
@@ -5444,7 +5560,7 @@
       <c r="E407" s="13"/>
       <c r="F407" s="13"/>
     </row>
-    <row r="408" spans="1:6" ht="24.95" customHeight="1">
+    <row r="408" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="11"/>
       <c r="B408" s="14"/>
       <c r="C408" s="15"/>
@@ -5452,7 +5568,7 @@
       <c r="E408" s="13"/>
       <c r="F408" s="13"/>
     </row>
-    <row r="409" spans="1:6" ht="24.95" customHeight="1">
+    <row r="409" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="11"/>
       <c r="B409" s="14"/>
       <c r="C409" s="15"/>
@@ -5460,7 +5576,7 @@
       <c r="E409" s="13"/>
       <c r="F409" s="13"/>
     </row>
-    <row r="410" spans="1:6" ht="24.95" customHeight="1">
+    <row r="410" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="11"/>
       <c r="B410" s="14"/>
       <c r="C410" s="15"/>
@@ -5468,7 +5584,7 @@
       <c r="E410" s="13"/>
       <c r="F410" s="13"/>
     </row>
-    <row r="411" spans="1:6" ht="24.95" customHeight="1">
+    <row r="411" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="11"/>
       <c r="B411" s="14"/>
       <c r="C411" s="15"/>
@@ -5476,7 +5592,7 @@
       <c r="E411" s="13"/>
       <c r="F411" s="13"/>
     </row>
-    <row r="412" spans="1:6" ht="24.95" customHeight="1">
+    <row r="412" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="11"/>
       <c r="B412" s="14"/>
       <c r="C412" s="15"/>
@@ -5484,7 +5600,7 @@
       <c r="E412" s="13"/>
       <c r="F412" s="13"/>
     </row>
-    <row r="413" spans="1:6" ht="24.95" customHeight="1">
+    <row r="413" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="11"/>
       <c r="B413" s="14"/>
       <c r="C413" s="15"/>
@@ -5492,7 +5608,7 @@
       <c r="E413" s="13"/>
       <c r="F413" s="13"/>
     </row>
-    <row r="414" spans="1:6" ht="24.95" customHeight="1">
+    <row r="414" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="11"/>
       <c r="B414" s="14"/>
       <c r="C414" s="15"/>
@@ -5500,7 +5616,7 @@
       <c r="E414" s="13"/>
       <c r="F414" s="13"/>
     </row>
-    <row r="415" spans="1:6" ht="24.95" customHeight="1">
+    <row r="415" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="11"/>
       <c r="B415" s="14"/>
       <c r="C415" s="15"/>
@@ -5508,7 +5624,7 @@
       <c r="E415" s="13"/>
       <c r="F415" s="13"/>
     </row>
-    <row r="416" spans="1:6" ht="24.95" customHeight="1">
+    <row r="416" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="11"/>
       <c r="B416" s="14"/>
       <c r="C416" s="15"/>
@@ -5516,7 +5632,7 @@
       <c r="E416" s="13"/>
       <c r="F416" s="13"/>
     </row>
-    <row r="417" spans="1:6" ht="24.95" customHeight="1">
+    <row r="417" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="11"/>
       <c r="B417" s="14"/>
       <c r="C417" s="15"/>
@@ -5524,7 +5640,7 @@
       <c r="E417" s="13"/>
       <c r="F417" s="13"/>
     </row>
-    <row r="418" spans="1:6" ht="24.95" customHeight="1">
+    <row r="418" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="11"/>
       <c r="B418" s="14"/>
       <c r="C418" s="15"/>
@@ -5532,7 +5648,7 @@
       <c r="E418" s="13"/>
       <c r="F418" s="13"/>
     </row>
-    <row r="419" spans="1:6" ht="24.95" customHeight="1">
+    <row r="419" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="11"/>
       <c r="B419" s="14"/>
       <c r="C419" s="15"/>
@@ -5540,7 +5656,7 @@
       <c r="E419" s="13"/>
       <c r="F419" s="13"/>
     </row>
-    <row r="420" spans="1:6" ht="24.95" customHeight="1">
+    <row r="420" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="11"/>
       <c r="B420" s="14"/>
       <c r="C420" s="15"/>
@@ -5548,7 +5664,7 @@
       <c r="E420" s="13"/>
       <c r="F420" s="13"/>
     </row>
-    <row r="421" spans="1:6" ht="24.95" customHeight="1">
+    <row r="421" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="11"/>
       <c r="B421" s="14"/>
       <c r="C421" s="15"/>
@@ -5556,7 +5672,7 @@
       <c r="E421" s="13"/>
       <c r="F421" s="13"/>
     </row>
-    <row r="422" spans="1:6" ht="24.95" customHeight="1">
+    <row r="422" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="11"/>
       <c r="B422" s="14"/>
       <c r="C422" s="15"/>
@@ -5564,7 +5680,7 @@
       <c r="E422" s="13"/>
       <c r="F422" s="13"/>
     </row>
-    <row r="423" spans="1:6" ht="24.95" customHeight="1">
+    <row r="423" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="11"/>
       <c r="B423" s="14"/>
       <c r="C423" s="15"/>
@@ -5572,7 +5688,7 @@
       <c r="E423" s="13"/>
       <c r="F423" s="13"/>
     </row>
-    <row r="424" spans="1:6" ht="24.95" customHeight="1">
+    <row r="424" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="11"/>
       <c r="B424" s="14"/>
       <c r="C424" s="15"/>
@@ -5580,7 +5696,7 @@
       <c r="E424" s="13"/>
       <c r="F424" s="13"/>
     </row>
-    <row r="425" spans="1:6" ht="24.95" customHeight="1">
+    <row r="425" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="11"/>
       <c r="B425" s="14"/>
       <c r="C425" s="15"/>
@@ -5588,7 +5704,7 @@
       <c r="E425" s="13"/>
       <c r="F425" s="13"/>
     </row>
-    <row r="426" spans="1:6" ht="24.95" customHeight="1">
+    <row r="426" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="11"/>
       <c r="B426" s="14"/>
       <c r="C426" s="15"/>
@@ -5596,7 +5712,7 @@
       <c r="E426" s="13"/>
       <c r="F426" s="13"/>
     </row>
-    <row r="427" spans="1:6" ht="24.95" customHeight="1">
+    <row r="427" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="11"/>
       <c r="B427" s="14"/>
       <c r="C427" s="15"/>
@@ -5604,7 +5720,7 @@
       <c r="E427" s="13"/>
       <c r="F427" s="13"/>
     </row>
-    <row r="428" spans="1:6" ht="24.95" customHeight="1">
+    <row r="428" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="11"/>
       <c r="B428" s="14"/>
       <c r="C428" s="15"/>
@@ -5612,7 +5728,7 @@
       <c r="E428" s="13"/>
       <c r="F428" s="13"/>
     </row>
-    <row r="429" spans="1:6" ht="24.95" customHeight="1">
+    <row r="429" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="11"/>
       <c r="B429" s="14"/>
       <c r="C429" s="15"/>
@@ -5620,7 +5736,7 @@
       <c r="E429" s="13"/>
       <c r="F429" s="13"/>
     </row>
-    <row r="430" spans="1:6" ht="24.95" customHeight="1">
+    <row r="430" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="11"/>
       <c r="B430" s="14"/>
       <c r="C430" s="15"/>
@@ -5628,7 +5744,7 @@
       <c r="E430" s="13"/>
       <c r="F430" s="13"/>
     </row>
-    <row r="431" spans="1:6" ht="24.95" customHeight="1">
+    <row r="431" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="11"/>
       <c r="B431" s="14"/>
       <c r="C431" s="15"/>
@@ -5636,7 +5752,7 @@
       <c r="E431" s="13"/>
       <c r="F431" s="13"/>
     </row>
-    <row r="432" spans="1:6" ht="24.95" customHeight="1">
+    <row r="432" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="11"/>
       <c r="B432" s="14"/>
       <c r="C432" s="15"/>
@@ -5644,7 +5760,7 @@
       <c r="E432" s="13"/>
       <c r="F432" s="13"/>
     </row>
-    <row r="433" spans="1:6" ht="24.95" customHeight="1">
+    <row r="433" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="11"/>
       <c r="B433" s="14"/>
       <c r="C433" s="15"/>
@@ -5652,7 +5768,7 @@
       <c r="E433" s="13"/>
       <c r="F433" s="13"/>
     </row>
-    <row r="434" spans="1:6" ht="24.95" customHeight="1">
+    <row r="434" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="11"/>
       <c r="B434" s="14"/>
       <c r="C434" s="15"/>
@@ -5660,7 +5776,7 @@
       <c r="E434" s="13"/>
       <c r="F434" s="13"/>
     </row>
-    <row r="435" spans="1:6" ht="24.95" customHeight="1">
+    <row r="435" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="11"/>
       <c r="B435" s="14"/>
       <c r="C435" s="15"/>
@@ -5668,7 +5784,7 @@
       <c r="E435" s="13"/>
       <c r="F435" s="13"/>
     </row>
-    <row r="436" spans="1:6" ht="24.95" customHeight="1">
+    <row r="436" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="11"/>
       <c r="B436" s="14"/>
       <c r="C436" s="15"/>
@@ -5676,7 +5792,7 @@
       <c r="E436" s="13"/>
       <c r="F436" s="13"/>
     </row>
-    <row r="437" spans="1:6" ht="24.95" customHeight="1">
+    <row r="437" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="11"/>
       <c r="B437" s="14"/>
       <c r="C437" s="15"/>
@@ -5684,7 +5800,7 @@
       <c r="E437" s="13"/>
       <c r="F437" s="13"/>
     </row>
-    <row r="438" spans="1:6" ht="24.95" customHeight="1">
+    <row r="438" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="11"/>
       <c r="B438" s="14"/>
       <c r="C438" s="15"/>
@@ -5692,7 +5808,7 @@
       <c r="E438" s="13"/>
       <c r="F438" s="13"/>
     </row>
-    <row r="439" spans="1:6" ht="24.95" customHeight="1">
+    <row r="439" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="11"/>
       <c r="B439" s="14"/>
       <c r="C439" s="15"/>
@@ -5700,7 +5816,7 @@
       <c r="E439" s="13"/>
       <c r="F439" s="13"/>
     </row>
-    <row r="440" spans="1:6" ht="24.95" customHeight="1">
+    <row r="440" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="11"/>
       <c r="B440" s="14"/>
       <c r="C440" s="15"/>
@@ -5708,7 +5824,7 @@
       <c r="E440" s="13"/>
       <c r="F440" s="13"/>
     </row>
-    <row r="441" spans="1:6" ht="24.95" customHeight="1">
+    <row r="441" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="11"/>
       <c r="B441" s="14"/>
       <c r="C441" s="15"/>
@@ -5716,7 +5832,7 @@
       <c r="E441" s="13"/>
       <c r="F441" s="13"/>
     </row>
-    <row r="442" spans="1:6" ht="24.95" customHeight="1">
+    <row r="442" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="11"/>
       <c r="B442" s="14"/>
       <c r="C442" s="15"/>
@@ -5724,7 +5840,7 @@
       <c r="E442" s="13"/>
       <c r="F442" s="13"/>
     </row>
-    <row r="443" spans="1:6" ht="24.95" customHeight="1">
+    <row r="443" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="11"/>
       <c r="B443" s="14"/>
       <c r="C443" s="15"/>
@@ -5732,7 +5848,7 @@
       <c r="E443" s="13"/>
       <c r="F443" s="13"/>
     </row>
-    <row r="444" spans="1:6" ht="24.95" customHeight="1">
+    <row r="444" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="11"/>
       <c r="B444" s="14"/>
       <c r="C444" s="15"/>
@@ -5740,7 +5856,7 @@
       <c r="E444" s="13"/>
       <c r="F444" s="13"/>
     </row>
-    <row r="445" spans="1:6" ht="24.95" customHeight="1">
+    <row r="445" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="11"/>
       <c r="B445" s="14"/>
       <c r="C445" s="15"/>
@@ -5748,7 +5864,7 @@
       <c r="E445" s="13"/>
       <c r="F445" s="13"/>
     </row>
-    <row r="446" spans="1:6" ht="24.95" customHeight="1">
+    <row r="446" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="11"/>
       <c r="B446" s="14"/>
       <c r="C446" s="15"/>
@@ -5756,7 +5872,7 @@
       <c r="E446" s="13"/>
       <c r="F446" s="13"/>
     </row>
-    <row r="447" spans="1:6" ht="24.95" customHeight="1">
+    <row r="447" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="11"/>
       <c r="B447" s="14"/>
       <c r="C447" s="15"/>
@@ -5764,7 +5880,7 @@
       <c r="E447" s="13"/>
       <c r="F447" s="13"/>
     </row>
-    <row r="448" spans="1:6" ht="24.95" customHeight="1">
+    <row r="448" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="11"/>
       <c r="B448" s="14"/>
       <c r="C448" s="15"/>
@@ -5772,7 +5888,7 @@
       <c r="E448" s="13"/>
       <c r="F448" s="13"/>
     </row>
-    <row r="449" spans="1:6" ht="24.95" customHeight="1">
+    <row r="449" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="11"/>
       <c r="B449" s="14"/>
       <c r="C449" s="15"/>
@@ -5780,7 +5896,7 @@
       <c r="E449" s="13"/>
       <c r="F449" s="13"/>
     </row>
-    <row r="450" spans="1:6" ht="24.95" customHeight="1">
+    <row r="450" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="11"/>
       <c r="B450" s="14"/>
       <c r="C450" s="15"/>
@@ -5788,7 +5904,7 @@
       <c r="E450" s="13"/>
       <c r="F450" s="13"/>
     </row>
-    <row r="451" spans="1:6" ht="24.95" customHeight="1">
+    <row r="451" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="11"/>
       <c r="B451" s="14"/>
       <c r="C451" s="15"/>
@@ -5796,7 +5912,7 @@
       <c r="E451" s="13"/>
       <c r="F451" s="13"/>
     </row>
-    <row r="452" spans="1:6" ht="24.95" customHeight="1">
+    <row r="452" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="11"/>
       <c r="B452" s="14"/>
       <c r="C452" s="15"/>
@@ -5804,7 +5920,7 @@
       <c r="E452" s="13"/>
       <c r="F452" s="13"/>
     </row>
-    <row r="453" spans="1:6" ht="24.95" customHeight="1">
+    <row r="453" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="11"/>
       <c r="B453" s="14"/>
       <c r="C453" s="15"/>
@@ -5812,7 +5928,7 @@
       <c r="E453" s="13"/>
       <c r="F453" s="13"/>
     </row>
-    <row r="454" spans="1:6" ht="24.95" customHeight="1">
+    <row r="454" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="11"/>
       <c r="B454" s="14"/>
       <c r="C454" s="15"/>
@@ -5820,7 +5936,7 @@
       <c r="E454" s="13"/>
       <c r="F454" s="13"/>
     </row>
-    <row r="455" spans="1:6" ht="24.95" customHeight="1">
+    <row r="455" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="11"/>
       <c r="B455" s="14"/>
       <c r="C455" s="15"/>
@@ -5828,7 +5944,7 @@
       <c r="E455" s="13"/>
       <c r="F455" s="13"/>
     </row>
-    <row r="456" spans="1:6" ht="24.95" customHeight="1">
+    <row r="456" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="11"/>
       <c r="B456" s="14"/>
       <c r="C456" s="15"/>
@@ -5836,7 +5952,7 @@
       <c r="E456" s="13"/>
       <c r="F456" s="13"/>
     </row>
-    <row r="457" spans="1:6" ht="24.95" customHeight="1">
+    <row r="457" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="11"/>
       <c r="B457" s="14"/>
       <c r="C457" s="15"/>
@@ -5844,7 +5960,7 @@
       <c r="E457" s="13"/>
       <c r="F457" s="13"/>
     </row>
-    <row r="458" spans="1:6" ht="24.95" customHeight="1">
+    <row r="458" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="11"/>
       <c r="B458" s="14"/>
       <c r="C458" s="15"/>
@@ -5852,7 +5968,7 @@
       <c r="E458" s="13"/>
       <c r="F458" s="13"/>
     </row>
-    <row r="459" spans="1:6" ht="24.95" customHeight="1">
+    <row r="459" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="11"/>
       <c r="B459" s="14"/>
       <c r="C459" s="15"/>
@@ -5860,7 +5976,7 @@
       <c r="E459" s="13"/>
       <c r="F459" s="13"/>
     </row>
-    <row r="460" spans="1:6" ht="24.95" customHeight="1">
+    <row r="460" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="11"/>
       <c r="B460" s="14"/>
       <c r="C460" s="15"/>
@@ -5868,7 +5984,7 @@
       <c r="E460" s="13"/>
       <c r="F460" s="13"/>
     </row>
-    <row r="461" spans="1:6" ht="24.95" customHeight="1">
+    <row r="461" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="11"/>
       <c r="B461" s="14"/>
       <c r="C461" s="15"/>
@@ -5876,7 +5992,7 @@
       <c r="E461" s="13"/>
       <c r="F461" s="13"/>
     </row>
-    <row r="462" spans="1:6" ht="24.95" customHeight="1">
+    <row r="462" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="11"/>
       <c r="B462" s="14"/>
       <c r="C462" s="15"/>
@@ -5884,7 +6000,7 @@
       <c r="E462" s="13"/>
       <c r="F462" s="13"/>
     </row>
-    <row r="463" spans="1:6" ht="24.95" customHeight="1">
+    <row r="463" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="11"/>
       <c r="B463" s="14"/>
       <c r="C463" s="15"/>
@@ -5892,7 +6008,7 @@
       <c r="E463" s="13"/>
       <c r="F463" s="13"/>
     </row>
-    <row r="464" spans="1:6" ht="24.95" customHeight="1">
+    <row r="464" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="11"/>
       <c r="B464" s="14"/>
       <c r="C464" s="15"/>
@@ -5900,7 +6016,7 @@
       <c r="E464" s="13"/>
       <c r="F464" s="13"/>
     </row>
-    <row r="465" spans="1:6" ht="24.95" customHeight="1">
+    <row r="465" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="11"/>
       <c r="B465" s="14"/>
       <c r="C465" s="15"/>
@@ -5908,7 +6024,7 @@
       <c r="E465" s="13"/>
       <c r="F465" s="13"/>
     </row>
-    <row r="466" spans="1:6" ht="24.95" customHeight="1">
+    <row r="466" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="11"/>
       <c r="B466" s="14"/>
       <c r="C466" s="15"/>
@@ -5916,7 +6032,7 @@
       <c r="E466" s="13"/>
       <c r="F466" s="13"/>
     </row>
-    <row r="467" spans="1:6" ht="24.95" customHeight="1">
+    <row r="467" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="11"/>
       <c r="B467" s="14"/>
       <c r="C467" s="15"/>
@@ -5924,7 +6040,7 @@
       <c r="E467" s="13"/>
       <c r="F467" s="13"/>
     </row>
-    <row r="468" spans="1:6" ht="24.95" customHeight="1">
+    <row r="468" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="11"/>
       <c r="B468" s="14"/>
       <c r="C468" s="15"/>
@@ -5932,7 +6048,7 @@
       <c r="E468" s="13"/>
       <c r="F468" s="13"/>
     </row>
-    <row r="469" spans="1:6" ht="24.95" customHeight="1">
+    <row r="469" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="11"/>
       <c r="B469" s="14"/>
       <c r="C469" s="15"/>
@@ -5940,7 +6056,7 @@
       <c r="E469" s="13"/>
       <c r="F469" s="13"/>
     </row>
-    <row r="470" spans="1:6" ht="24.95" customHeight="1">
+    <row r="470" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="11"/>
       <c r="B470" s="14"/>
       <c r="C470" s="15"/>
@@ -5948,7 +6064,7 @@
       <c r="E470" s="13"/>
       <c r="F470" s="13"/>
     </row>
-    <row r="471" spans="1:6" ht="24.95" customHeight="1">
+    <row r="471" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="11"/>
       <c r="B471" s="14"/>
       <c r="C471" s="15"/>
@@ -5956,7 +6072,7 @@
       <c r="E471" s="13"/>
       <c r="F471" s="13"/>
     </row>
-    <row r="472" spans="1:6" ht="24.95" customHeight="1">
+    <row r="472" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="11"/>
       <c r="B472" s="14"/>
       <c r="C472" s="15"/>
@@ -5964,7 +6080,7 @@
       <c r="E472" s="13"/>
       <c r="F472" s="13"/>
     </row>
-    <row r="473" spans="1:6" ht="24.95" customHeight="1">
+    <row r="473" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="11"/>
       <c r="B473" s="14"/>
       <c r="C473" s="15"/>
@@ -5972,7 +6088,7 @@
       <c r="E473" s="13"/>
       <c r="F473" s="13"/>
     </row>
-    <row r="474" spans="1:6" ht="24.95" customHeight="1">
+    <row r="474" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="11"/>
       <c r="B474" s="14"/>
       <c r="C474" s="15"/>
@@ -5980,7 +6096,7 @@
       <c r="E474" s="13"/>
       <c r="F474" s="13"/>
     </row>
-    <row r="475" spans="1:6" ht="24.95" customHeight="1">
+    <row r="475" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="11"/>
       <c r="B475" s="14"/>
       <c r="C475" s="15"/>
@@ -5988,7 +6104,7 @@
       <c r="E475" s="13"/>
       <c r="F475" s="13"/>
     </row>
-    <row r="476" spans="1:6" ht="24.95" customHeight="1">
+    <row r="476" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="11"/>
       <c r="B476" s="14"/>
       <c r="C476" s="15"/>
@@ -5996,7 +6112,7 @@
       <c r="E476" s="13"/>
       <c r="F476" s="13"/>
     </row>
-    <row r="477" spans="1:6" ht="24.95" customHeight="1">
+    <row r="477" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="11"/>
       <c r="B477" s="14"/>
       <c r="C477" s="15"/>
@@ -6004,7 +6120,7 @@
       <c r="E477" s="13"/>
       <c r="F477" s="13"/>
     </row>
-    <row r="478" spans="1:6" ht="24.95" customHeight="1">
+    <row r="478" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="11"/>
       <c r="B478" s="14"/>
       <c r="C478" s="15"/>
@@ -6012,7 +6128,7 @@
       <c r="E478" s="13"/>
       <c r="F478" s="13"/>
     </row>
-    <row r="479" spans="1:6" ht="24.95" customHeight="1">
+    <row r="479" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="11"/>
       <c r="B479" s="14"/>
       <c r="C479" s="15"/>
@@ -6020,7 +6136,7 @@
       <c r="E479" s="13"/>
       <c r="F479" s="13"/>
     </row>
-    <row r="480" spans="1:6" ht="24.95" customHeight="1">
+    <row r="480" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="11"/>
       <c r="B480" s="14"/>
       <c r="C480" s="15"/>
@@ -6028,7 +6144,7 @@
       <c r="E480" s="13"/>
       <c r="F480" s="13"/>
     </row>
-    <row r="481" spans="1:6" ht="24.95" customHeight="1">
+    <row r="481" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="11"/>
       <c r="B481" s="14"/>
       <c r="C481" s="15"/>
@@ -6036,7 +6152,7 @@
       <c r="E481" s="13"/>
       <c r="F481" s="13"/>
     </row>
-    <row r="482" spans="1:6" ht="24.95" customHeight="1">
+    <row r="482" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="11"/>
       <c r="B482" s="14"/>
       <c r="C482" s="15"/>
@@ -6044,7 +6160,7 @@
       <c r="E482" s="13"/>
       <c r="F482" s="13"/>
     </row>
-    <row r="483" spans="1:6" ht="24.95" customHeight="1">
+    <row r="483" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="11"/>
       <c r="B483" s="14"/>
       <c r="C483" s="15"/>
@@ -6052,7 +6168,7 @@
       <c r="E483" s="13"/>
       <c r="F483" s="13"/>
     </row>
-    <row r="484" spans="1:6" ht="24.95" customHeight="1">
+    <row r="484" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="11"/>
       <c r="B484" s="14"/>
       <c r="C484" s="15"/>
@@ -6060,7 +6176,7 @@
       <c r="E484" s="13"/>
       <c r="F484" s="13"/>
     </row>
-    <row r="485" spans="1:6" ht="24.95" customHeight="1">
+    <row r="485" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="11"/>
       <c r="B485" s="14"/>
       <c r="C485" s="15"/>
@@ -6068,7 +6184,7 @@
       <c r="E485" s="13"/>
       <c r="F485" s="13"/>
     </row>
-    <row r="486" spans="1:6" ht="24.95" customHeight="1">
+    <row r="486" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="11"/>
       <c r="B486" s="14"/>
       <c r="C486" s="15"/>
@@ -6076,7 +6192,7 @@
       <c r="E486" s="13"/>
       <c r="F486" s="13"/>
     </row>
-    <row r="487" spans="1:6" ht="24.95" customHeight="1">
+    <row r="487" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="11"/>
       <c r="B487" s="14"/>
       <c r="C487" s="15"/>
@@ -6084,7 +6200,7 @@
       <c r="E487" s="13"/>
       <c r="F487" s="13"/>
     </row>
-    <row r="488" spans="1:6" ht="24.95" customHeight="1">
+    <row r="488" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="11"/>
       <c r="B488" s="14"/>
       <c r="C488" s="15"/>
@@ -6092,7 +6208,7 @@
       <c r="E488" s="13"/>
       <c r="F488" s="13"/>
     </row>
-    <row r="489" spans="1:6" ht="24.95" customHeight="1">
+    <row r="489" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="11"/>
       <c r="B489" s="14"/>
       <c r="C489" s="15"/>
@@ -6100,7 +6216,7 @@
       <c r="E489" s="13"/>
       <c r="F489" s="13"/>
     </row>
-    <row r="490" spans="1:6" ht="24.95" customHeight="1">
+    <row r="490" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="11"/>
       <c r="B490" s="14"/>
       <c r="C490" s="15"/>
@@ -6108,7 +6224,7 @@
       <c r="E490" s="13"/>
       <c r="F490" s="13"/>
     </row>
-    <row r="491" spans="1:6" ht="24.95" customHeight="1">
+    <row r="491" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="11"/>
       <c r="B491" s="14"/>
       <c r="C491" s="15"/>
@@ -6116,7 +6232,7 @@
       <c r="E491" s="13"/>
       <c r="F491" s="13"/>
     </row>
-    <row r="492" spans="1:6" ht="24.95" customHeight="1">
+    <row r="492" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="11"/>
       <c r="B492" s="14"/>
       <c r="C492" s="15"/>
@@ -6124,7 +6240,7 @@
       <c r="E492" s="13"/>
       <c r="F492" s="13"/>
     </row>
-    <row r="493" spans="1:6" ht="24.95" customHeight="1">
+    <row r="493" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="11"/>
       <c r="B493" s="14"/>
       <c r="C493" s="15"/>
@@ -6132,7 +6248,7 @@
       <c r="E493" s="13"/>
       <c r="F493" s="13"/>
     </row>
-    <row r="494" spans="1:6" ht="24.95" customHeight="1">
+    <row r="494" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="11"/>
       <c r="B494" s="14"/>
       <c r="C494" s="15"/>
@@ -6140,7 +6256,7 @@
       <c r="E494" s="13"/>
       <c r="F494" s="13"/>
     </row>
-    <row r="495" spans="1:6" ht="24.95" customHeight="1">
+    <row r="495" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="11"/>
       <c r="B495" s="14"/>
       <c r="C495" s="15"/>
@@ -6148,7 +6264,7 @@
       <c r="E495" s="13"/>
       <c r="F495" s="13"/>
     </row>
-    <row r="496" spans="1:6" ht="24.95" customHeight="1">
+    <row r="496" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="11"/>
       <c r="B496" s="14"/>
       <c r="C496" s="15"/>
@@ -6156,7 +6272,7 @@
       <c r="E496" s="13"/>
       <c r="F496" s="13"/>
     </row>
-    <row r="497" spans="1:6" ht="24.95" customHeight="1">
+    <row r="497" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="11"/>
       <c r="B497" s="14"/>
       <c r="C497" s="15"/>
@@ -6164,7 +6280,7 @@
       <c r="E497" s="13"/>
       <c r="F497" s="13"/>
     </row>
-    <row r="498" spans="1:6" ht="24.95" customHeight="1">
+    <row r="498" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="11"/>
       <c r="B498" s="14"/>
       <c r="C498" s="15"/>
@@ -6172,7 +6288,7 @@
       <c r="E498" s="13"/>
       <c r="F498" s="13"/>
     </row>
-    <row r="499" spans="1:6" ht="24.95" customHeight="1">
+    <row r="499" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="11"/>
       <c r="B499" s="14"/>
       <c r="C499" s="15"/>
@@ -6180,7 +6296,7 @@
       <c r="E499" s="13"/>
       <c r="F499" s="13"/>
     </row>
-    <row r="500" spans="1:6" ht="24.95" customHeight="1">
+    <row r="500" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="11"/>
       <c r="B500" s="14"/>
       <c r="C500" s="15"/>
@@ -6201,9 +6317,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B1:D1" listDataValidation="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6231,13 +6344,13 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -6245,7 +6358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -6254,2030 +6367,2030 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
         <v>4.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
+    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B6" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
         <v>2.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
+    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B8" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1">
+    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B9" s="15">
         <f>SUMIF(Journal!$D$2:$D$160,Tableau13[[#This Row],[Type]],Journal!$C$2:$C$160)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1">
+    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1">
+    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1">
+    <row r="13" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1">
+    <row r="14" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1">
+    <row r="15" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1">
+    <row r="16" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" ht="24.95" customHeight="1">
+    <row r="17" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="15"/>
     </row>
-    <row r="18" spans="1:2" ht="24.95" customHeight="1">
+    <row r="18" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2" ht="24.95" customHeight="1">
+    <row r="19" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:2" ht="24.95" customHeight="1">
+    <row r="20" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1">
+    <row r="21" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1">
+    <row r="22" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1">
+    <row r="23" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
     </row>
-    <row r="24" spans="1:2" ht="24.95" customHeight="1">
+    <row r="24" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:2" ht="24.95" customHeight="1">
+    <row r="25" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:2" ht="24.95" customHeight="1">
+    <row r="26" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:2" ht="24.95" customHeight="1">
+    <row r="27" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1">
+    <row r="28" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1">
+    <row r="29" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1">
+    <row r="30" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:2" ht="24.95" customHeight="1">
+    <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="1:2" ht="24.95" customHeight="1">
+    <row r="32" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="15"/>
     </row>
-    <row r="33" spans="1:2" ht="24.95" customHeight="1">
+    <row r="33" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="1:2" ht="24.95" customHeight="1">
+    <row r="34" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1">
+    <row r="35" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="15"/>
     </row>
-    <row r="36" spans="1:2" ht="24.95" customHeight="1">
+    <row r="36" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:2" ht="24.95" customHeight="1">
+    <row r="37" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1">
+    <row r="38" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1">
+    <row r="39" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1">
+    <row r="40" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1">
+    <row r="41" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:2" ht="24.95" customHeight="1">
+    <row r="42" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="15"/>
     </row>
-    <row r="43" spans="1:2" ht="24.95" customHeight="1">
+    <row r="43" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:2" ht="24.95" customHeight="1">
+    <row r="44" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:2" ht="24.95" customHeight="1">
+    <row r="45" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" ht="24.95" customHeight="1">
+    <row r="46" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:2" ht="24.95" customHeight="1">
+    <row r="47" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:2" ht="24.95" customHeight="1">
+    <row r="48" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="1:2" ht="24.95" customHeight="1">
+    <row r="49" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="1:2" ht="24.95" customHeight="1">
+    <row r="50" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="1:2" ht="24.95" customHeight="1">
+    <row r="51" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="1:2" ht="24.95" customHeight="1">
+    <row r="52" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" ht="24.95" customHeight="1">
+    <row r="53" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="1:2" ht="24.95" customHeight="1">
+    <row r="54" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2" ht="24.95" customHeight="1">
+    <row r="55" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2" ht="24.95" customHeight="1">
+    <row r="56" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:2" ht="24.95" customHeight="1">
+    <row r="57" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" ht="24.95" customHeight="1">
+    <row r="58" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2" ht="24.95" customHeight="1">
+    <row r="59" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="1:2" ht="24.95" customHeight="1">
+    <row r="60" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2" ht="24.95" customHeight="1">
+    <row r="61" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" ht="24.95" customHeight="1">
+    <row r="62" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="1:2" ht="24.95" customHeight="1">
+    <row r="63" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="1:2" ht="24.95" customHeight="1">
+    <row r="64" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" ht="24.95" customHeight="1">
+    <row r="65" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="1:2" ht="24.95" customHeight="1">
+    <row r="66" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="1:2" ht="24.95" customHeight="1">
+    <row r="67" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="1:2" ht="24.95" customHeight="1">
+    <row r="68" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="1:2" ht="24.95" customHeight="1">
+    <row r="69" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="1:2" ht="24.95" customHeight="1">
+    <row r="70" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:2" ht="24.95" customHeight="1">
+    <row r="71" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:2" ht="24.95" customHeight="1">
+    <row r="72" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="1:2" ht="24.95" customHeight="1">
+    <row r="73" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="1:2" ht="24.95" customHeight="1">
+    <row r="74" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="1:2" ht="24.95" customHeight="1">
+    <row r="75" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="1:2" ht="24.95" customHeight="1">
+    <row r="76" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="1:2" ht="24.95" customHeight="1">
+    <row r="77" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="1:2" ht="24.95" customHeight="1">
+    <row r="78" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="1:2" ht="24.95" customHeight="1">
+    <row r="79" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="1:2" ht="24.95" customHeight="1">
+    <row r="80" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="1:2" ht="24.95" customHeight="1">
+    <row r="81" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="1:2" ht="24.95" customHeight="1">
+    <row r="82" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="1:2" ht="24.95" customHeight="1">
+    <row r="83" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="1:2" ht="24.95" customHeight="1">
+    <row r="84" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="1:2" ht="24.95" customHeight="1">
+    <row r="85" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="1:2" ht="24.95" customHeight="1">
+    <row r="86" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="1:2" ht="24.95" customHeight="1">
+    <row r="87" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="15"/>
     </row>
-    <row r="88" spans="1:2" ht="24.95" customHeight="1">
+    <row r="88" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="1:2" ht="24.95" customHeight="1">
+    <row r="89" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="1:2" ht="24.95" customHeight="1">
+    <row r="90" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="1:2" ht="24.95" customHeight="1">
+    <row r="91" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="1:2" ht="24.95" customHeight="1">
+    <row r="92" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="1:2" ht="24.95" customHeight="1">
+    <row r="93" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="15"/>
     </row>
-    <row r="94" spans="1:2" ht="24.95" customHeight="1">
+    <row r="94" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="15"/>
     </row>
-    <row r="95" spans="1:2" ht="24.95" customHeight="1">
+    <row r="95" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="15"/>
     </row>
-    <row r="96" spans="1:2" ht="24.95" customHeight="1">
+    <row r="96" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="15"/>
     </row>
-    <row r="97" spans="1:2" ht="24.95" customHeight="1">
+    <row r="97" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="15"/>
     </row>
-    <row r="98" spans="1:2" ht="24.95" customHeight="1">
+    <row r="98" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="15"/>
     </row>
-    <row r="99" spans="1:2" ht="24.95" customHeight="1">
+    <row r="99" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="15"/>
     </row>
-    <row r="100" spans="1:2" ht="24.95" customHeight="1">
+    <row r="100" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:2" ht="24.95" customHeight="1">
+    <row r="101" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="1:2" ht="24.95" customHeight="1">
+    <row r="102" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="15"/>
     </row>
-    <row r="103" spans="1:2" ht="24.95" customHeight="1">
+    <row r="103" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="15"/>
     </row>
-    <row r="104" spans="1:2" ht="24.95" customHeight="1">
+    <row r="104" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="15"/>
     </row>
-    <row r="105" spans="1:2" ht="24.95" customHeight="1">
+    <row r="105" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="15"/>
     </row>
-    <row r="106" spans="1:2" ht="24.95" customHeight="1">
+    <row r="106" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="15"/>
     </row>
-    <row r="107" spans="1:2" ht="24.95" customHeight="1">
+    <row r="107" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="1:2" ht="24.95" customHeight="1">
+    <row r="108" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="15"/>
     </row>
-    <row r="109" spans="1:2" ht="24.95" customHeight="1">
+    <row r="109" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="15"/>
     </row>
-    <row r="110" spans="1:2" ht="24.95" customHeight="1">
+    <row r="110" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="1:2" ht="24.95" customHeight="1">
+    <row r="111" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="1:2" ht="24.95" customHeight="1">
+    <row r="112" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="1:2" ht="24.95" customHeight="1">
+    <row r="113" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="15"/>
     </row>
-    <row r="114" spans="1:2" ht="24.95" customHeight="1">
+    <row r="114" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="15"/>
     </row>
-    <row r="115" spans="1:2" ht="24.95" customHeight="1">
+    <row r="115" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="15"/>
     </row>
-    <row r="116" spans="1:2" ht="24.95" customHeight="1">
+    <row r="116" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="15"/>
     </row>
-    <row r="117" spans="1:2" ht="24.95" customHeight="1">
+    <row r="117" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="15"/>
     </row>
-    <row r="118" spans="1:2" ht="24.95" customHeight="1">
+    <row r="118" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="1:2" ht="24.95" customHeight="1">
+    <row r="119" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="15"/>
     </row>
-    <row r="120" spans="1:2" ht="24.95" customHeight="1">
+    <row r="120" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="1:2" ht="24.95" customHeight="1">
+    <row r="121" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="1:2" ht="24.95" customHeight="1">
+    <row r="122" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="1:2" ht="24.95" customHeight="1">
+    <row r="123" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="15"/>
     </row>
-    <row r="124" spans="1:2" ht="24.95" customHeight="1">
+    <row r="124" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="15"/>
     </row>
-    <row r="125" spans="1:2" ht="24.95" customHeight="1">
+    <row r="125" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="15"/>
     </row>
-    <row r="126" spans="1:2" ht="24.95" customHeight="1">
+    <row r="126" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="15"/>
     </row>
-    <row r="127" spans="1:2" ht="24.95" customHeight="1">
+    <row r="127" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="15"/>
     </row>
-    <row r="128" spans="1:2" ht="24.95" customHeight="1">
+    <row r="128" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="15"/>
     </row>
-    <row r="129" spans="1:2" ht="24.95" customHeight="1">
+    <row r="129" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="15"/>
     </row>
-    <row r="130" spans="1:2" ht="24.95" customHeight="1">
+    <row r="130" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="15"/>
     </row>
-    <row r="131" spans="1:2" ht="24.95" customHeight="1">
+    <row r="131" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="15"/>
     </row>
-    <row r="132" spans="1:2" ht="24.95" customHeight="1">
+    <row r="132" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="15"/>
     </row>
-    <row r="133" spans="1:2" ht="24.95" customHeight="1">
+    <row r="133" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="15"/>
     </row>
-    <row r="134" spans="1:2" ht="24.95" customHeight="1">
+    <row r="134" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="15"/>
     </row>
-    <row r="135" spans="1:2" ht="24.95" customHeight="1">
+    <row r="135" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="15"/>
     </row>
-    <row r="136" spans="1:2" ht="24.95" customHeight="1">
+    <row r="136" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="15"/>
     </row>
-    <row r="137" spans="1:2" ht="24.95" customHeight="1">
+    <row r="137" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="15"/>
     </row>
-    <row r="138" spans="1:2" ht="24.95" customHeight="1">
+    <row r="138" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="15"/>
     </row>
-    <row r="139" spans="1:2" ht="24.95" customHeight="1">
+    <row r="139" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="15"/>
     </row>
-    <row r="140" spans="1:2" ht="24.95" customHeight="1">
+    <row r="140" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="15"/>
     </row>
-    <row r="141" spans="1:2" ht="24.95" customHeight="1">
+    <row r="141" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="15"/>
     </row>
-    <row r="142" spans="1:2" ht="24.95" customHeight="1">
+    <row r="142" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="15"/>
     </row>
-    <row r="143" spans="1:2" ht="24.95" customHeight="1">
+    <row r="143" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="15"/>
     </row>
-    <row r="144" spans="1:2" ht="24.95" customHeight="1">
+    <row r="144" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="15"/>
     </row>
-    <row r="145" spans="1:2" ht="24.95" customHeight="1">
+    <row r="145" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="15"/>
     </row>
-    <row r="146" spans="1:2" ht="24.95" customHeight="1">
+    <row r="146" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="15"/>
     </row>
-    <row r="147" spans="1:2" ht="24.95" customHeight="1">
+    <row r="147" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="15"/>
     </row>
-    <row r="148" spans="1:2" ht="24.95" customHeight="1">
+    <row r="148" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="15"/>
     </row>
-    <row r="149" spans="1:2" ht="24.95" customHeight="1">
+    <row r="149" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="15"/>
     </row>
-    <row r="150" spans="1:2" ht="24.95" customHeight="1">
+    <row r="150" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="15"/>
     </row>
-    <row r="151" spans="1:2" ht="24.95" customHeight="1">
+    <row r="151" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="15"/>
     </row>
-    <row r="152" spans="1:2" ht="24.95" customHeight="1">
+    <row r="152" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="15"/>
     </row>
-    <row r="153" spans="1:2" ht="24.95" customHeight="1">
+    <row r="153" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="15"/>
     </row>
-    <row r="154" spans="1:2" ht="24.95" customHeight="1">
+    <row r="154" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="15"/>
     </row>
-    <row r="155" spans="1:2" ht="24.95" customHeight="1">
+    <row r="155" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="15"/>
     </row>
-    <row r="156" spans="1:2" ht="24.95" customHeight="1">
+    <row r="156" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="15"/>
     </row>
-    <row r="157" spans="1:2" ht="24.95" customHeight="1">
+    <row r="157" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="15"/>
     </row>
-    <row r="158" spans="1:2" ht="24.95" customHeight="1">
+    <row r="158" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="15"/>
     </row>
-    <row r="159" spans="1:2" ht="24.95" customHeight="1">
+    <row r="159" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="15"/>
     </row>
-    <row r="160" spans="1:2" ht="24.95" customHeight="1">
+    <row r="160" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="15"/>
     </row>
-    <row r="161" spans="1:2" ht="24.95" customHeight="1">
+    <row r="161" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="15"/>
     </row>
-    <row r="162" spans="1:2" ht="24.95" customHeight="1">
+    <row r="162" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="11"/>
       <c r="B162" s="15"/>
     </row>
-    <row r="163" spans="1:2" ht="24.95" customHeight="1">
+    <row r="163" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="11"/>
       <c r="B163" s="15"/>
     </row>
-    <row r="164" spans="1:2" ht="24.95" customHeight="1">
+    <row r="164" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="11"/>
       <c r="B164" s="15"/>
     </row>
-    <row r="165" spans="1:2" ht="24.95" customHeight="1">
+    <row r="165" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="11"/>
       <c r="B165" s="15"/>
     </row>
-    <row r="166" spans="1:2" ht="24.95" customHeight="1">
+    <row r="166" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="11"/>
       <c r="B166" s="15"/>
     </row>
-    <row r="167" spans="1:2" ht="24.95" customHeight="1">
+    <row r="167" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="11"/>
       <c r="B167" s="15"/>
     </row>
-    <row r="168" spans="1:2" ht="24.95" customHeight="1">
+    <row r="168" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="11"/>
       <c r="B168" s="15"/>
     </row>
-    <row r="169" spans="1:2" ht="24.95" customHeight="1">
+    <row r="169" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="11"/>
       <c r="B169" s="15"/>
     </row>
-    <row r="170" spans="1:2" ht="24.95" customHeight="1">
+    <row r="170" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="11"/>
       <c r="B170" s="15"/>
     </row>
-    <row r="171" spans="1:2" ht="24.95" customHeight="1">
+    <row r="171" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="11"/>
       <c r="B171" s="15"/>
     </row>
-    <row r="172" spans="1:2" ht="24.95" customHeight="1">
+    <row r="172" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="11"/>
       <c r="B172" s="15"/>
     </row>
-    <row r="173" spans="1:2" ht="24.95" customHeight="1">
+    <row r="173" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="11"/>
       <c r="B173" s="15"/>
     </row>
-    <row r="174" spans="1:2" ht="24.95" customHeight="1">
+    <row r="174" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="11"/>
       <c r="B174" s="15"/>
     </row>
-    <row r="175" spans="1:2" ht="24.95" customHeight="1">
+    <row r="175" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="11"/>
       <c r="B175" s="15"/>
     </row>
-    <row r="176" spans="1:2" ht="24.95" customHeight="1">
+    <row r="176" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="11"/>
       <c r="B176" s="15"/>
     </row>
-    <row r="177" spans="1:2" ht="24.95" customHeight="1">
+    <row r="177" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="11"/>
       <c r="B177" s="15"/>
     </row>
-    <row r="178" spans="1:2" ht="24.95" customHeight="1">
+    <row r="178" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="11"/>
       <c r="B178" s="15"/>
     </row>
-    <row r="179" spans="1:2" ht="24.95" customHeight="1">
+    <row r="179" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="11"/>
       <c r="B179" s="15"/>
     </row>
-    <row r="180" spans="1:2" ht="24.95" customHeight="1">
+    <row r="180" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="11"/>
       <c r="B180" s="15"/>
     </row>
-    <row r="181" spans="1:2" ht="24.95" customHeight="1">
+    <row r="181" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="11"/>
       <c r="B181" s="15"/>
     </row>
-    <row r="182" spans="1:2" ht="24.95" customHeight="1">
+    <row r="182" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="11"/>
       <c r="B182" s="15"/>
     </row>
-    <row r="183" spans="1:2" ht="24.95" customHeight="1">
+    <row r="183" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="11"/>
       <c r="B183" s="15"/>
     </row>
-    <row r="184" spans="1:2" ht="24.95" customHeight="1">
+    <row r="184" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="11"/>
       <c r="B184" s="15"/>
     </row>
-    <row r="185" spans="1:2" ht="24.95" customHeight="1">
+    <row r="185" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="11"/>
       <c r="B185" s="15"/>
     </row>
-    <row r="186" spans="1:2" ht="24.95" customHeight="1">
+    <row r="186" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="11"/>
       <c r="B186" s="15"/>
     </row>
-    <row r="187" spans="1:2" ht="24.95" customHeight="1">
+    <row r="187" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="11"/>
       <c r="B187" s="15"/>
     </row>
-    <row r="188" spans="1:2" ht="24.95" customHeight="1">
+    <row r="188" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="11"/>
       <c r="B188" s="15"/>
     </row>
-    <row r="189" spans="1:2" ht="24.95" customHeight="1">
+    <row r="189" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="11"/>
       <c r="B189" s="15"/>
     </row>
-    <row r="190" spans="1:2" ht="24.95" customHeight="1">
+    <row r="190" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="11"/>
       <c r="B190" s="15"/>
     </row>
-    <row r="191" spans="1:2" ht="24.95" customHeight="1">
+    <row r="191" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="11"/>
       <c r="B191" s="15"/>
     </row>
-    <row r="192" spans="1:2" ht="24.95" customHeight="1">
+    <row r="192" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="11"/>
       <c r="B192" s="15"/>
     </row>
-    <row r="193" spans="1:2" ht="24.95" customHeight="1">
+    <row r="193" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="11"/>
       <c r="B193" s="15"/>
     </row>
-    <row r="194" spans="1:2" ht="24.95" customHeight="1">
+    <row r="194" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="11"/>
       <c r="B194" s="15"/>
     </row>
-    <row r="195" spans="1:2" ht="24.95" customHeight="1">
+    <row r="195" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="11"/>
       <c r="B195" s="15"/>
     </row>
-    <row r="196" spans="1:2" ht="24.95" customHeight="1">
+    <row r="196" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="11"/>
       <c r="B196" s="15"/>
     </row>
-    <row r="197" spans="1:2" ht="24.95" customHeight="1">
+    <row r="197" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="11"/>
       <c r="B197" s="15"/>
     </row>
-    <row r="198" spans="1:2" ht="24.95" customHeight="1">
+    <row r="198" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="11"/>
       <c r="B198" s="15"/>
     </row>
-    <row r="199" spans="1:2" ht="24.95" customHeight="1">
+    <row r="199" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="11"/>
       <c r="B199" s="15"/>
     </row>
-    <row r="200" spans="1:2" ht="24.95" customHeight="1">
+    <row r="200" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="11"/>
       <c r="B200" s="15"/>
     </row>
-    <row r="201" spans="1:2" ht="24.95" customHeight="1">
+    <row r="201" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="11"/>
       <c r="B201" s="15"/>
     </row>
-    <row r="202" spans="1:2" ht="24.95" customHeight="1">
+    <row r="202" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="11"/>
       <c r="B202" s="15"/>
     </row>
-    <row r="203" spans="1:2" ht="24.95" customHeight="1">
+    <row r="203" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="11"/>
       <c r="B203" s="15"/>
     </row>
-    <row r="204" spans="1:2" ht="24.95" customHeight="1">
+    <row r="204" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="11"/>
       <c r="B204" s="15"/>
     </row>
-    <row r="205" spans="1:2" ht="24.95" customHeight="1">
+    <row r="205" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="11"/>
       <c r="B205" s="15"/>
     </row>
-    <row r="206" spans="1:2" ht="24.95" customHeight="1">
+    <row r="206" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="11"/>
       <c r="B206" s="15"/>
     </row>
-    <row r="207" spans="1:2" ht="24.95" customHeight="1">
+    <row r="207" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="11"/>
       <c r="B207" s="15"/>
     </row>
-    <row r="208" spans="1:2" ht="24.95" customHeight="1">
+    <row r="208" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="11"/>
       <c r="B208" s="15"/>
     </row>
-    <row r="209" spans="1:2" ht="24.95" customHeight="1">
+    <row r="209" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="11"/>
       <c r="B209" s="15"/>
     </row>
-    <row r="210" spans="1:2" ht="24.95" customHeight="1">
+    <row r="210" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="11"/>
       <c r="B210" s="15"/>
     </row>
-    <row r="211" spans="1:2" ht="24.95" customHeight="1">
+    <row r="211" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="11"/>
       <c r="B211" s="15"/>
     </row>
-    <row r="212" spans="1:2" ht="24.95" customHeight="1">
+    <row r="212" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="11"/>
       <c r="B212" s="15"/>
     </row>
-    <row r="213" spans="1:2" ht="24.95" customHeight="1">
+    <row r="213" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="11"/>
       <c r="B213" s="15"/>
     </row>
-    <row r="214" spans="1:2" ht="24.95" customHeight="1">
+    <row r="214" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="11"/>
       <c r="B214" s="15"/>
     </row>
-    <row r="215" spans="1:2" ht="24.95" customHeight="1">
+    <row r="215" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="11"/>
       <c r="B215" s="15"/>
     </row>
-    <row r="216" spans="1:2" ht="24.95" customHeight="1">
+    <row r="216" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="11"/>
       <c r="B216" s="15"/>
     </row>
-    <row r="217" spans="1:2" ht="24.95" customHeight="1">
+    <row r="217" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="11"/>
       <c r="B217" s="15"/>
     </row>
-    <row r="218" spans="1:2" ht="24.95" customHeight="1">
+    <row r="218" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="11"/>
       <c r="B218" s="15"/>
     </row>
-    <row r="219" spans="1:2" ht="24.95" customHeight="1">
+    <row r="219" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="11"/>
       <c r="B219" s="15"/>
     </row>
-    <row r="220" spans="1:2" ht="24.95" customHeight="1">
+    <row r="220" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="11"/>
       <c r="B220" s="15"/>
     </row>
-    <row r="221" spans="1:2" ht="24.95" customHeight="1">
+    <row r="221" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="11"/>
       <c r="B221" s="15"/>
     </row>
-    <row r="222" spans="1:2" ht="24.95" customHeight="1">
+    <row r="222" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="11"/>
       <c r="B222" s="15"/>
     </row>
-    <row r="223" spans="1:2" ht="24.95" customHeight="1">
+    <row r="223" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="11"/>
       <c r="B223" s="15"/>
     </row>
-    <row r="224" spans="1:2" ht="24.95" customHeight="1">
+    <row r="224" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="11"/>
       <c r="B224" s="15"/>
     </row>
-    <row r="225" spans="1:2" ht="24.95" customHeight="1">
+    <row r="225" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="11"/>
       <c r="B225" s="15"/>
     </row>
-    <row r="226" spans="1:2" ht="24.95" customHeight="1">
+    <row r="226" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="11"/>
       <c r="B226" s="15"/>
     </row>
-    <row r="227" spans="1:2" ht="24.95" customHeight="1">
+    <row r="227" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="11"/>
       <c r="B227" s="15"/>
     </row>
-    <row r="228" spans="1:2" ht="24.95" customHeight="1">
+    <row r="228" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="11"/>
       <c r="B228" s="15"/>
     </row>
-    <row r="229" spans="1:2" ht="24.95" customHeight="1">
+    <row r="229" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="11"/>
       <c r="B229" s="15"/>
     </row>
-    <row r="230" spans="1:2" ht="24.95" customHeight="1">
+    <row r="230" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="11"/>
       <c r="B230" s="15"/>
     </row>
-    <row r="231" spans="1:2" ht="24.95" customHeight="1">
+    <row r="231" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="11"/>
       <c r="B231" s="15"/>
     </row>
-    <row r="232" spans="1:2" ht="24.95" customHeight="1">
+    <row r="232" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="11"/>
       <c r="B232" s="15"/>
     </row>
-    <row r="233" spans="1:2" ht="24.95" customHeight="1">
+    <row r="233" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="11"/>
       <c r="B233" s="15"/>
     </row>
-    <row r="234" spans="1:2" ht="24.95" customHeight="1">
+    <row r="234" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="11"/>
       <c r="B234" s="15"/>
     </row>
-    <row r="235" spans="1:2" ht="24.95" customHeight="1">
+    <row r="235" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="11"/>
       <c r="B235" s="15"/>
     </row>
-    <row r="236" spans="1:2" ht="24.95" customHeight="1">
+    <row r="236" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="11"/>
       <c r="B236" s="15"/>
     </row>
-    <row r="237" spans="1:2" ht="24.95" customHeight="1">
+    <row r="237" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="11"/>
       <c r="B237" s="15"/>
     </row>
-    <row r="238" spans="1:2" ht="24.95" customHeight="1">
+    <row r="238" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="11"/>
       <c r="B238" s="15"/>
     </row>
-    <row r="239" spans="1:2" ht="24.95" customHeight="1">
+    <row r="239" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="11"/>
       <c r="B239" s="15"/>
     </row>
-    <row r="240" spans="1:2" ht="24.95" customHeight="1">
+    <row r="240" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="11"/>
       <c r="B240" s="15"/>
     </row>
-    <row r="241" spans="1:2" ht="24.95" customHeight="1">
+    <row r="241" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="11"/>
       <c r="B241" s="15"/>
     </row>
-    <row r="242" spans="1:2" ht="24.95" customHeight="1">
+    <row r="242" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="11"/>
       <c r="B242" s="15"/>
     </row>
-    <row r="243" spans="1:2" ht="24.95" customHeight="1">
+    <row r="243" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="11"/>
       <c r="B243" s="15"/>
     </row>
-    <row r="244" spans="1:2" ht="24.95" customHeight="1">
+    <row r="244" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="11"/>
       <c r="B244" s="15"/>
     </row>
-    <row r="245" spans="1:2" ht="24.95" customHeight="1">
+    <row r="245" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="11"/>
       <c r="B245" s="15"/>
     </row>
-    <row r="246" spans="1:2" ht="24.95" customHeight="1">
+    <row r="246" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="11"/>
       <c r="B246" s="15"/>
     </row>
-    <row r="247" spans="1:2" ht="24.95" customHeight="1">
+    <row r="247" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="11"/>
       <c r="B247" s="15"/>
     </row>
-    <row r="248" spans="1:2" ht="24.95" customHeight="1">
+    <row r="248" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="11"/>
       <c r="B248" s="15"/>
     </row>
-    <row r="249" spans="1:2" ht="24.95" customHeight="1">
+    <row r="249" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="11"/>
       <c r="B249" s="15"/>
     </row>
-    <row r="250" spans="1:2" ht="24.95" customHeight="1">
+    <row r="250" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="11"/>
       <c r="B250" s="15"/>
     </row>
-    <row r="251" spans="1:2" ht="24.95" customHeight="1">
+    <row r="251" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="11"/>
       <c r="B251" s="15"/>
     </row>
-    <row r="252" spans="1:2" ht="24.95" customHeight="1">
+    <row r="252" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="11"/>
       <c r="B252" s="15"/>
     </row>
-    <row r="253" spans="1:2" ht="24.95" customHeight="1">
+    <row r="253" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="11"/>
       <c r="B253" s="15"/>
     </row>
-    <row r="254" spans="1:2" ht="24.95" customHeight="1">
+    <row r="254" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="11"/>
       <c r="B254" s="15"/>
     </row>
-    <row r="255" spans="1:2" ht="24.95" customHeight="1">
+    <row r="255" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="11"/>
       <c r="B255" s="15"/>
     </row>
-    <row r="256" spans="1:2" ht="24.95" customHeight="1">
+    <row r="256" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="11"/>
       <c r="B256" s="15"/>
     </row>
-    <row r="257" spans="1:2" ht="24.95" customHeight="1">
+    <row r="257" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="11"/>
       <c r="B257" s="15"/>
     </row>
-    <row r="258" spans="1:2" ht="24.95" customHeight="1">
+    <row r="258" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="11"/>
       <c r="B258" s="15"/>
     </row>
-    <row r="259" spans="1:2" ht="24.95" customHeight="1">
+    <row r="259" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="11"/>
       <c r="B259" s="15"/>
     </row>
-    <row r="260" spans="1:2" ht="24.95" customHeight="1">
+    <row r="260" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="11"/>
       <c r="B260" s="15"/>
     </row>
-    <row r="261" spans="1:2" ht="24.95" customHeight="1">
+    <row r="261" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="11"/>
       <c r="B261" s="15"/>
     </row>
-    <row r="262" spans="1:2" ht="24.95" customHeight="1">
+    <row r="262" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="11"/>
       <c r="B262" s="15"/>
     </row>
-    <row r="263" spans="1:2" ht="24.95" customHeight="1">
+    <row r="263" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="11"/>
       <c r="B263" s="15"/>
     </row>
-    <row r="264" spans="1:2" ht="24.95" customHeight="1">
+    <row r="264" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="11"/>
       <c r="B264" s="15"/>
     </row>
-    <row r="265" spans="1:2" ht="24.95" customHeight="1">
+    <row r="265" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="11"/>
       <c r="B265" s="15"/>
     </row>
-    <row r="266" spans="1:2" ht="24.95" customHeight="1">
+    <row r="266" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="11"/>
       <c r="B266" s="15"/>
     </row>
-    <row r="267" spans="1:2" ht="24.95" customHeight="1">
+    <row r="267" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="11"/>
       <c r="B267" s="15"/>
     </row>
-    <row r="268" spans="1:2" ht="24.95" customHeight="1">
+    <row r="268" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="11"/>
       <c r="B268" s="15"/>
     </row>
-    <row r="269" spans="1:2" ht="24.95" customHeight="1">
+    <row r="269" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="11"/>
       <c r="B269" s="15"/>
     </row>
-    <row r="270" spans="1:2" ht="24.95" customHeight="1">
+    <row r="270" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="11"/>
       <c r="B270" s="15"/>
     </row>
-    <row r="271" spans="1:2" ht="24.95" customHeight="1">
+    <row r="271" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="11"/>
       <c r="B271" s="15"/>
     </row>
-    <row r="272" spans="1:2" ht="24.95" customHeight="1">
+    <row r="272" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="11"/>
       <c r="B272" s="15"/>
     </row>
-    <row r="273" spans="1:2" ht="24.95" customHeight="1">
+    <row r="273" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="11"/>
       <c r="B273" s="15"/>
     </row>
-    <row r="274" spans="1:2" ht="24.95" customHeight="1">
+    <row r="274" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="11"/>
       <c r="B274" s="15"/>
     </row>
-    <row r="275" spans="1:2" ht="24.95" customHeight="1">
+    <row r="275" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="11"/>
       <c r="B275" s="15"/>
     </row>
-    <row r="276" spans="1:2" ht="24.95" customHeight="1">
+    <row r="276" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="11"/>
       <c r="B276" s="15"/>
     </row>
-    <row r="277" spans="1:2" ht="24.95" customHeight="1">
+    <row r="277" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="11"/>
       <c r="B277" s="15"/>
     </row>
-    <row r="278" spans="1:2" ht="24.95" customHeight="1">
+    <row r="278" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="11"/>
       <c r="B278" s="15"/>
     </row>
-    <row r="279" spans="1:2" ht="24.95" customHeight="1">
+    <row r="279" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="11"/>
       <c r="B279" s="15"/>
     </row>
-    <row r="280" spans="1:2" ht="24.95" customHeight="1">
+    <row r="280" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="11"/>
       <c r="B280" s="15"/>
     </row>
-    <row r="281" spans="1:2" ht="24.95" customHeight="1">
+    <row r="281" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="11"/>
       <c r="B281" s="15"/>
     </row>
-    <row r="282" spans="1:2" ht="24.95" customHeight="1">
+    <row r="282" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="11"/>
       <c r="B282" s="15"/>
     </row>
-    <row r="283" spans="1:2" ht="24.95" customHeight="1">
+    <row r="283" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="11"/>
       <c r="B283" s="15"/>
     </row>
-    <row r="284" spans="1:2" ht="24.95" customHeight="1">
+    <row r="284" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="11"/>
       <c r="B284" s="15"/>
     </row>
-    <row r="285" spans="1:2" ht="24.95" customHeight="1">
+    <row r="285" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="11"/>
       <c r="B285" s="15"/>
     </row>
-    <row r="286" spans="1:2" ht="24.95" customHeight="1">
+    <row r="286" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="11"/>
       <c r="B286" s="15"/>
     </row>
-    <row r="287" spans="1:2" ht="24.95" customHeight="1">
+    <row r="287" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="11"/>
       <c r="B287" s="15"/>
     </row>
-    <row r="288" spans="1:2" ht="24.95" customHeight="1">
+    <row r="288" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="11"/>
       <c r="B288" s="15"/>
     </row>
-    <row r="289" spans="1:2" ht="24.95" customHeight="1">
+    <row r="289" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="11"/>
       <c r="B289" s="15"/>
     </row>
-    <row r="290" spans="1:2" ht="24.95" customHeight="1">
+    <row r="290" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="11"/>
       <c r="B290" s="15"/>
     </row>
-    <row r="291" spans="1:2" ht="24.95" customHeight="1">
+    <row r="291" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="11"/>
       <c r="B291" s="15"/>
     </row>
-    <row r="292" spans="1:2" ht="24.95" customHeight="1">
+    <row r="292" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="11"/>
       <c r="B292" s="15"/>
     </row>
-    <row r="293" spans="1:2" ht="24.95" customHeight="1">
+    <row r="293" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="11"/>
       <c r="B293" s="15"/>
     </row>
-    <row r="294" spans="1:2" ht="24.95" customHeight="1">
+    <row r="294" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="11"/>
       <c r="B294" s="15"/>
     </row>
-    <row r="295" spans="1:2" ht="24.95" customHeight="1">
+    <row r="295" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="11"/>
       <c r="B295" s="15"/>
     </row>
-    <row r="296" spans="1:2" ht="24.95" customHeight="1">
+    <row r="296" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="11"/>
       <c r="B296" s="15"/>
     </row>
-    <row r="297" spans="1:2" ht="24.95" customHeight="1">
+    <row r="297" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="11"/>
       <c r="B297" s="15"/>
     </row>
-    <row r="298" spans="1:2" ht="24.95" customHeight="1">
+    <row r="298" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="11"/>
       <c r="B298" s="15"/>
     </row>
-    <row r="299" spans="1:2" ht="24.95" customHeight="1">
+    <row r="299" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="11"/>
       <c r="B299" s="15"/>
     </row>
-    <row r="300" spans="1:2" ht="24.95" customHeight="1">
+    <row r="300" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="11"/>
       <c r="B300" s="15"/>
     </row>
-    <row r="301" spans="1:2" ht="24.95" customHeight="1">
+    <row r="301" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="11"/>
       <c r="B301" s="15"/>
     </row>
-    <row r="302" spans="1:2" ht="24.95" customHeight="1">
+    <row r="302" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="11"/>
       <c r="B302" s="15"/>
     </row>
-    <row r="303" spans="1:2" ht="24.95" customHeight="1">
+    <row r="303" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="11"/>
       <c r="B303" s="15"/>
     </row>
-    <row r="304" spans="1:2" ht="24.95" customHeight="1">
+    <row r="304" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="11"/>
       <c r="B304" s="15"/>
     </row>
-    <row r="305" spans="1:2" ht="24.95" customHeight="1">
+    <row r="305" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="11"/>
       <c r="B305" s="15"/>
     </row>
-    <row r="306" spans="1:2" ht="24.95" customHeight="1">
+    <row r="306" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="11"/>
       <c r="B306" s="15"/>
     </row>
-    <row r="307" spans="1:2" ht="24.95" customHeight="1">
+    <row r="307" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="11"/>
       <c r="B307" s="15"/>
     </row>
-    <row r="308" spans="1:2" ht="24.95" customHeight="1">
+    <row r="308" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="11"/>
       <c r="B308" s="15"/>
     </row>
-    <row r="309" spans="1:2" ht="24.95" customHeight="1">
+    <row r="309" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="11"/>
       <c r="B309" s="15"/>
     </row>
-    <row r="310" spans="1:2" ht="24.95" customHeight="1">
+    <row r="310" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="11"/>
       <c r="B310" s="15"/>
     </row>
-    <row r="311" spans="1:2" ht="24.95" customHeight="1">
+    <row r="311" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="11"/>
       <c r="B311" s="15"/>
     </row>
-    <row r="312" spans="1:2" ht="24.95" customHeight="1">
+    <row r="312" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="11"/>
       <c r="B312" s="15"/>
     </row>
-    <row r="313" spans="1:2" ht="24.95" customHeight="1">
+    <row r="313" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="11"/>
       <c r="B313" s="15"/>
     </row>
-    <row r="314" spans="1:2" ht="24.95" customHeight="1">
+    <row r="314" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="11"/>
       <c r="B314" s="15"/>
     </row>
-    <row r="315" spans="1:2" ht="24.95" customHeight="1">
+    <row r="315" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="11"/>
       <c r="B315" s="15"/>
     </row>
-    <row r="316" spans="1:2" ht="24.95" customHeight="1">
+    <row r="316" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="11"/>
       <c r="B316" s="15"/>
     </row>
-    <row r="317" spans="1:2" ht="24.95" customHeight="1">
+    <row r="317" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="11"/>
       <c r="B317" s="15"/>
     </row>
-    <row r="318" spans="1:2" ht="24.95" customHeight="1">
+    <row r="318" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="11"/>
       <c r="B318" s="15"/>
     </row>
-    <row r="319" spans="1:2" ht="24.95" customHeight="1">
+    <row r="319" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="11"/>
       <c r="B319" s="15"/>
     </row>
-    <row r="320" spans="1:2" ht="24.95" customHeight="1">
+    <row r="320" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="11"/>
       <c r="B320" s="15"/>
     </row>
-    <row r="321" spans="1:2" ht="24.95" customHeight="1">
+    <row r="321" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="11"/>
       <c r="B321" s="15"/>
     </row>
-    <row r="322" spans="1:2" ht="24.95" customHeight="1">
+    <row r="322" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="11"/>
       <c r="B322" s="15"/>
     </row>
-    <row r="323" spans="1:2" ht="24.95" customHeight="1">
+    <row r="323" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="11"/>
       <c r="B323" s="15"/>
     </row>
-    <row r="324" spans="1:2" ht="24.95" customHeight="1">
+    <row r="324" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="11"/>
       <c r="B324" s="15"/>
     </row>
-    <row r="325" spans="1:2" ht="24.95" customHeight="1">
+    <row r="325" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="11"/>
       <c r="B325" s="15"/>
     </row>
-    <row r="326" spans="1:2" ht="24.95" customHeight="1">
+    <row r="326" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="11"/>
       <c r="B326" s="15"/>
     </row>
-    <row r="327" spans="1:2" ht="24.95" customHeight="1">
+    <row r="327" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="11"/>
       <c r="B327" s="15"/>
     </row>
-    <row r="328" spans="1:2" ht="24.95" customHeight="1">
+    <row r="328" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="11"/>
       <c r="B328" s="15"/>
     </row>
-    <row r="329" spans="1:2" ht="24.95" customHeight="1">
+    <row r="329" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="11"/>
       <c r="B329" s="15"/>
     </row>
-    <row r="330" spans="1:2" ht="24.95" customHeight="1">
+    <row r="330" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="11"/>
       <c r="B330" s="15"/>
     </row>
-    <row r="331" spans="1:2" ht="24.95" customHeight="1">
+    <row r="331" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="11"/>
       <c r="B331" s="15"/>
     </row>
-    <row r="332" spans="1:2" ht="24.95" customHeight="1">
+    <row r="332" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="11"/>
       <c r="B332" s="15"/>
     </row>
-    <row r="333" spans="1:2" ht="24.95" customHeight="1">
+    <row r="333" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="11"/>
       <c r="B333" s="15"/>
     </row>
-    <row r="334" spans="1:2" ht="24.95" customHeight="1">
+    <row r="334" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="11"/>
       <c r="B334" s="15"/>
     </row>
-    <row r="335" spans="1:2" ht="24.95" customHeight="1">
+    <row r="335" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="11"/>
       <c r="B335" s="15"/>
     </row>
-    <row r="336" spans="1:2" ht="24.95" customHeight="1">
+    <row r="336" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="11"/>
       <c r="B336" s="15"/>
     </row>
-    <row r="337" spans="1:2" ht="24.95" customHeight="1">
+    <row r="337" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="11"/>
       <c r="B337" s="15"/>
     </row>
-    <row r="338" spans="1:2" ht="24.95" customHeight="1">
+    <row r="338" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="11"/>
       <c r="B338" s="15"/>
     </row>
-    <row r="339" spans="1:2" ht="24.95" customHeight="1">
+    <row r="339" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="11"/>
       <c r="B339" s="15"/>
     </row>
-    <row r="340" spans="1:2" ht="24.95" customHeight="1">
+    <row r="340" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="11"/>
       <c r="B340" s="15"/>
     </row>
-    <row r="341" spans="1:2" ht="24.95" customHeight="1">
+    <row r="341" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="11"/>
       <c r="B341" s="15"/>
     </row>
-    <row r="342" spans="1:2" ht="24.95" customHeight="1">
+    <row r="342" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="11"/>
       <c r="B342" s="15"/>
     </row>
-    <row r="343" spans="1:2" ht="24.95" customHeight="1">
+    <row r="343" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="11"/>
       <c r="B343" s="15"/>
     </row>
-    <row r="344" spans="1:2" ht="24.95" customHeight="1">
+    <row r="344" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="11"/>
       <c r="B344" s="15"/>
     </row>
-    <row r="345" spans="1:2" ht="24.95" customHeight="1">
+    <row r="345" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="11"/>
       <c r="B345" s="15"/>
     </row>
-    <row r="346" spans="1:2" ht="24.95" customHeight="1">
+    <row r="346" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="11"/>
       <c r="B346" s="15"/>
     </row>
-    <row r="347" spans="1:2" ht="24.95" customHeight="1">
+    <row r="347" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="11"/>
       <c r="B347" s="15"/>
     </row>
-    <row r="348" spans="1:2" ht="24.95" customHeight="1">
+    <row r="348" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="11"/>
       <c r="B348" s="15"/>
     </row>
-    <row r="349" spans="1:2" ht="24.95" customHeight="1">
+    <row r="349" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="11"/>
       <c r="B349" s="15"/>
     </row>
-    <row r="350" spans="1:2" ht="24.95" customHeight="1">
+    <row r="350" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="11"/>
       <c r="B350" s="15"/>
     </row>
-    <row r="351" spans="1:2" ht="24.95" customHeight="1">
+    <row r="351" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="11"/>
       <c r="B351" s="15"/>
     </row>
-    <row r="352" spans="1:2" ht="24.95" customHeight="1">
+    <row r="352" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="11"/>
       <c r="B352" s="15"/>
     </row>
-    <row r="353" spans="1:2" ht="24.95" customHeight="1">
+    <row r="353" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="11"/>
       <c r="B353" s="15"/>
     </row>
-    <row r="354" spans="1:2" ht="24.95" customHeight="1">
+    <row r="354" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="11"/>
       <c r="B354" s="15"/>
     </row>
-    <row r="355" spans="1:2" ht="24.95" customHeight="1">
+    <row r="355" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="11"/>
       <c r="B355" s="15"/>
     </row>
-    <row r="356" spans="1:2" ht="24.95" customHeight="1">
+    <row r="356" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="11"/>
       <c r="B356" s="15"/>
     </row>
-    <row r="357" spans="1:2" ht="24.95" customHeight="1">
+    <row r="357" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="11"/>
       <c r="B357" s="15"/>
     </row>
-    <row r="358" spans="1:2" ht="24.95" customHeight="1">
+    <row r="358" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="11"/>
       <c r="B358" s="15"/>
     </row>
-    <row r="359" spans="1:2" ht="24.95" customHeight="1">
+    <row r="359" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="11"/>
       <c r="B359" s="15"/>
     </row>
-    <row r="360" spans="1:2" ht="24.95" customHeight="1">
+    <row r="360" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="11"/>
       <c r="B360" s="15"/>
     </row>
-    <row r="361" spans="1:2" ht="24.95" customHeight="1">
+    <row r="361" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="11"/>
       <c r="B361" s="15"/>
     </row>
-    <row r="362" spans="1:2" ht="24.95" customHeight="1">
+    <row r="362" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="11"/>
       <c r="B362" s="15"/>
     </row>
-    <row r="363" spans="1:2" ht="24.95" customHeight="1">
+    <row r="363" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="11"/>
       <c r="B363" s="15"/>
     </row>
-    <row r="364" spans="1:2" ht="24.95" customHeight="1">
+    <row r="364" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="11"/>
       <c r="B364" s="15"/>
     </row>
-    <row r="365" spans="1:2" ht="24.95" customHeight="1">
+    <row r="365" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="11"/>
       <c r="B365" s="15"/>
     </row>
-    <row r="366" spans="1:2" ht="24.95" customHeight="1">
+    <row r="366" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="11"/>
       <c r="B366" s="15"/>
     </row>
-    <row r="367" spans="1:2" ht="24.95" customHeight="1">
+    <row r="367" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="11"/>
       <c r="B367" s="15"/>
     </row>
-    <row r="368" spans="1:2" ht="24.95" customHeight="1">
+    <row r="368" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="11"/>
       <c r="B368" s="15"/>
     </row>
-    <row r="369" spans="1:2" ht="24.95" customHeight="1">
+    <row r="369" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="11"/>
       <c r="B369" s="15"/>
     </row>
-    <row r="370" spans="1:2" ht="24.95" customHeight="1">
+    <row r="370" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="11"/>
       <c r="B370" s="15"/>
     </row>
-    <row r="371" spans="1:2" ht="24.95" customHeight="1">
+    <row r="371" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="11"/>
       <c r="B371" s="15"/>
     </row>
-    <row r="372" spans="1:2" ht="24.95" customHeight="1">
+    <row r="372" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="11"/>
       <c r="B372" s="15"/>
     </row>
-    <row r="373" spans="1:2" ht="24.95" customHeight="1">
+    <row r="373" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="11"/>
       <c r="B373" s="15"/>
     </row>
-    <row r="374" spans="1:2" ht="24.95" customHeight="1">
+    <row r="374" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="11"/>
       <c r="B374" s="15"/>
     </row>
-    <row r="375" spans="1:2" ht="24.95" customHeight="1">
+    <row r="375" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="11"/>
       <c r="B375" s="15"/>
     </row>
-    <row r="376" spans="1:2" ht="24.95" customHeight="1">
+    <row r="376" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="11"/>
       <c r="B376" s="15"/>
     </row>
-    <row r="377" spans="1:2" ht="24.95" customHeight="1">
+    <row r="377" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="11"/>
       <c r="B377" s="15"/>
     </row>
-    <row r="378" spans="1:2" ht="24.95" customHeight="1">
+    <row r="378" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="11"/>
       <c r="B378" s="15"/>
     </row>
-    <row r="379" spans="1:2" ht="24.95" customHeight="1">
+    <row r="379" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="11"/>
       <c r="B379" s="15"/>
     </row>
-    <row r="380" spans="1:2" ht="24.95" customHeight="1">
+    <row r="380" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="11"/>
       <c r="B380" s="15"/>
     </row>
-    <row r="381" spans="1:2" ht="24.95" customHeight="1">
+    <row r="381" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="11"/>
       <c r="B381" s="15"/>
     </row>
-    <row r="382" spans="1:2" ht="24.95" customHeight="1">
+    <row r="382" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="11"/>
       <c r="B382" s="15"/>
     </row>
-    <row r="383" spans="1:2" ht="24.95" customHeight="1">
+    <row r="383" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="11"/>
       <c r="B383" s="15"/>
     </row>
-    <row r="384" spans="1:2" ht="24.95" customHeight="1">
+    <row r="384" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="11"/>
       <c r="B384" s="15"/>
     </row>
-    <row r="385" spans="1:2" ht="24.95" customHeight="1">
+    <row r="385" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="11"/>
       <c r="B385" s="15"/>
     </row>
-    <row r="386" spans="1:2" ht="24.95" customHeight="1">
+    <row r="386" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="11"/>
       <c r="B386" s="15"/>
     </row>
-    <row r="387" spans="1:2" ht="24.95" customHeight="1">
+    <row r="387" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="11"/>
       <c r="B387" s="15"/>
     </row>
-    <row r="388" spans="1:2" ht="24.95" customHeight="1">
+    <row r="388" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="11"/>
       <c r="B388" s="15"/>
     </row>
-    <row r="389" spans="1:2" ht="24.95" customHeight="1">
+    <row r="389" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="11"/>
       <c r="B389" s="15"/>
     </row>
-    <row r="390" spans="1:2" ht="24.95" customHeight="1">
+    <row r="390" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="11"/>
       <c r="B390" s="15"/>
     </row>
-    <row r="391" spans="1:2" ht="24.95" customHeight="1">
+    <row r="391" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="11"/>
       <c r="B391" s="15"/>
     </row>
-    <row r="392" spans="1:2" ht="24.95" customHeight="1">
+    <row r="392" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="11"/>
       <c r="B392" s="15"/>
     </row>
-    <row r="393" spans="1:2" ht="24.95" customHeight="1">
+    <row r="393" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="11"/>
       <c r="B393" s="15"/>
     </row>
-    <row r="394" spans="1:2" ht="24.95" customHeight="1">
+    <row r="394" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="11"/>
       <c r="B394" s="15"/>
     </row>
-    <row r="395" spans="1:2" ht="24.95" customHeight="1">
+    <row r="395" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="11"/>
       <c r="B395" s="15"/>
     </row>
-    <row r="396" spans="1:2" ht="24.95" customHeight="1">
+    <row r="396" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="11"/>
       <c r="B396" s="15"/>
     </row>
-    <row r="397" spans="1:2" ht="24.95" customHeight="1">
+    <row r="397" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="11"/>
       <c r="B397" s="15"/>
     </row>
-    <row r="398" spans="1:2" ht="24.95" customHeight="1">
+    <row r="398" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="11"/>
       <c r="B398" s="15"/>
     </row>
-    <row r="399" spans="1:2" ht="24.95" customHeight="1">
+    <row r="399" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="11"/>
       <c r="B399" s="15"/>
     </row>
-    <row r="400" spans="1:2" ht="24.95" customHeight="1">
+    <row r="400" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="11"/>
       <c r="B400" s="15"/>
     </row>
-    <row r="401" spans="1:2" ht="24.95" customHeight="1">
+    <row r="401" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="11"/>
       <c r="B401" s="15"/>
     </row>
-    <row r="402" spans="1:2" ht="24.95" customHeight="1">
+    <row r="402" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="11"/>
       <c r="B402" s="15"/>
     </row>
-    <row r="403" spans="1:2" ht="24.95" customHeight="1">
+    <row r="403" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="11"/>
       <c r="B403" s="15"/>
     </row>
-    <row r="404" spans="1:2" ht="24.95" customHeight="1">
+    <row r="404" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="11"/>
       <c r="B404" s="15"/>
     </row>
-    <row r="405" spans="1:2" ht="24.95" customHeight="1">
+    <row r="405" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="11"/>
       <c r="B405" s="15"/>
     </row>
-    <row r="406" spans="1:2" ht="24.95" customHeight="1">
+    <row r="406" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="11"/>
       <c r="B406" s="15"/>
     </row>
-    <row r="407" spans="1:2" ht="24.95" customHeight="1">
+    <row r="407" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="11"/>
       <c r="B407" s="15"/>
     </row>
-    <row r="408" spans="1:2" ht="24.95" customHeight="1">
+    <row r="408" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="11"/>
       <c r="B408" s="15"/>
     </row>
-    <row r="409" spans="1:2" ht="24.95" customHeight="1">
+    <row r="409" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="11"/>
       <c r="B409" s="15"/>
     </row>
-    <row r="410" spans="1:2" ht="24.95" customHeight="1">
+    <row r="410" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="11"/>
       <c r="B410" s="15"/>
     </row>
-    <row r="411" spans="1:2" ht="24.95" customHeight="1">
+    <row r="411" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="11"/>
       <c r="B411" s="15"/>
     </row>
-    <row r="412" spans="1:2" ht="24.95" customHeight="1">
+    <row r="412" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="11"/>
       <c r="B412" s="15"/>
     </row>
-    <row r="413" spans="1:2" ht="24.95" customHeight="1">
+    <row r="413" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="11"/>
       <c r="B413" s="15"/>
     </row>
-    <row r="414" spans="1:2" ht="24.95" customHeight="1">
+    <row r="414" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="11"/>
       <c r="B414" s="15"/>
     </row>
-    <row r="415" spans="1:2" ht="24.95" customHeight="1">
+    <row r="415" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="11"/>
       <c r="B415" s="15"/>
     </row>
-    <row r="416" spans="1:2" ht="24.95" customHeight="1">
+    <row r="416" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="11"/>
       <c r="B416" s="15"/>
     </row>
-    <row r="417" spans="1:2" ht="24.95" customHeight="1">
+    <row r="417" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="11"/>
       <c r="B417" s="15"/>
     </row>
-    <row r="418" spans="1:2" ht="24.95" customHeight="1">
+    <row r="418" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="11"/>
       <c r="B418" s="15"/>
     </row>
-    <row r="419" spans="1:2" ht="24.95" customHeight="1">
+    <row r="419" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="11"/>
       <c r="B419" s="15"/>
     </row>
-    <row r="420" spans="1:2" ht="24.95" customHeight="1">
+    <row r="420" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="11"/>
       <c r="B420" s="15"/>
     </row>
-    <row r="421" spans="1:2" ht="24.95" customHeight="1">
+    <row r="421" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="11"/>
       <c r="B421" s="15"/>
     </row>
-    <row r="422" spans="1:2" ht="24.95" customHeight="1">
+    <row r="422" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="11"/>
       <c r="B422" s="15"/>
     </row>
-    <row r="423" spans="1:2" ht="24.95" customHeight="1">
+    <row r="423" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="11"/>
       <c r="B423" s="15"/>
     </row>
-    <row r="424" spans="1:2" ht="24.95" customHeight="1">
+    <row r="424" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="11"/>
       <c r="B424" s="15"/>
     </row>
-    <row r="425" spans="1:2" ht="24.95" customHeight="1">
+    <row r="425" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="11"/>
       <c r="B425" s="15"/>
     </row>
-    <row r="426" spans="1:2" ht="24.95" customHeight="1">
+    <row r="426" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="11"/>
       <c r="B426" s="15"/>
     </row>
-    <row r="427" spans="1:2" ht="24.95" customHeight="1">
+    <row r="427" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="11"/>
       <c r="B427" s="15"/>
     </row>
-    <row r="428" spans="1:2" ht="24.95" customHeight="1">
+    <row r="428" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="11"/>
       <c r="B428" s="15"/>
     </row>
-    <row r="429" spans="1:2" ht="24.95" customHeight="1">
+    <row r="429" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="11"/>
       <c r="B429" s="15"/>
     </row>
-    <row r="430" spans="1:2" ht="24.95" customHeight="1">
+    <row r="430" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="11"/>
       <c r="B430" s="15"/>
     </row>
-    <row r="431" spans="1:2" ht="24.95" customHeight="1">
+    <row r="431" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="11"/>
       <c r="B431" s="15"/>
     </row>
-    <row r="432" spans="1:2" ht="24.95" customHeight="1">
+    <row r="432" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="11"/>
       <c r="B432" s="15"/>
     </row>
-    <row r="433" spans="1:2" ht="24.95" customHeight="1">
+    <row r="433" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="11"/>
       <c r="B433" s="15"/>
     </row>
-    <row r="434" spans="1:2" ht="24.95" customHeight="1">
+    <row r="434" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="11"/>
       <c r="B434" s="15"/>
     </row>
-    <row r="435" spans="1:2" ht="24.95" customHeight="1">
+    <row r="435" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="11"/>
       <c r="B435" s="15"/>
     </row>
-    <row r="436" spans="1:2" ht="24.95" customHeight="1">
+    <row r="436" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="11"/>
       <c r="B436" s="15"/>
     </row>
-    <row r="437" spans="1:2" ht="24.95" customHeight="1">
+    <row r="437" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="11"/>
       <c r="B437" s="15"/>
     </row>
-    <row r="438" spans="1:2" ht="24.95" customHeight="1">
+    <row r="438" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="11"/>
       <c r="B438" s="15"/>
     </row>
-    <row r="439" spans="1:2" ht="24.95" customHeight="1">
+    <row r="439" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="11"/>
       <c r="B439" s="15"/>
     </row>
-    <row r="440" spans="1:2" ht="24.95" customHeight="1">
+    <row r="440" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="11"/>
       <c r="B440" s="15"/>
     </row>
-    <row r="441" spans="1:2" ht="24.95" customHeight="1">
+    <row r="441" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="11"/>
       <c r="B441" s="15"/>
     </row>
-    <row r="442" spans="1:2" ht="24.95" customHeight="1">
+    <row r="442" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="11"/>
       <c r="B442" s="15"/>
     </row>
-    <row r="443" spans="1:2" ht="24.95" customHeight="1">
+    <row r="443" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="11"/>
       <c r="B443" s="15"/>
     </row>
-    <row r="444" spans="1:2" ht="24.95" customHeight="1">
+    <row r="444" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="11"/>
       <c r="B444" s="15"/>
     </row>
-    <row r="445" spans="1:2" ht="24.95" customHeight="1">
+    <row r="445" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="11"/>
       <c r="B445" s="15"/>
     </row>
-    <row r="446" spans="1:2" ht="24.95" customHeight="1">
+    <row r="446" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="11"/>
       <c r="B446" s="15"/>
     </row>
-    <row r="447" spans="1:2" ht="24.95" customHeight="1">
+    <row r="447" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="11"/>
       <c r="B447" s="15"/>
     </row>
-    <row r="448" spans="1:2" ht="24.95" customHeight="1">
+    <row r="448" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="11"/>
       <c r="B448" s="15"/>
     </row>
-    <row r="449" spans="1:2" ht="24.95" customHeight="1">
+    <row r="449" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="11"/>
       <c r="B449" s="15"/>
     </row>
-    <row r="450" spans="1:2" ht="24.95" customHeight="1">
+    <row r="450" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="11"/>
       <c r="B450" s="15"/>
     </row>
-    <row r="451" spans="1:2" ht="24.95" customHeight="1">
+    <row r="451" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="11"/>
       <c r="B451" s="15"/>
     </row>
-    <row r="452" spans="1:2" ht="24.95" customHeight="1">
+    <row r="452" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="11"/>
       <c r="B452" s="15"/>
     </row>
-    <row r="453" spans="1:2" ht="24.95" customHeight="1">
+    <row r="453" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="11"/>
       <c r="B453" s="15"/>
     </row>
-    <row r="454" spans="1:2" ht="24.95" customHeight="1">
+    <row r="454" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="11"/>
       <c r="B454" s="15"/>
     </row>
-    <row r="455" spans="1:2" ht="24.95" customHeight="1">
+    <row r="455" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="11"/>
       <c r="B455" s="15"/>
     </row>
-    <row r="456" spans="1:2" ht="24.95" customHeight="1">
+    <row r="456" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="11"/>
       <c r="B456" s="15"/>
     </row>
-    <row r="457" spans="1:2" ht="24.95" customHeight="1">
+    <row r="457" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="11"/>
       <c r="B457" s="15"/>
     </row>
-    <row r="458" spans="1:2" ht="24.95" customHeight="1">
+    <row r="458" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="11"/>
       <c r="B458" s="15"/>
     </row>
-    <row r="459" spans="1:2" ht="24.95" customHeight="1">
+    <row r="459" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="11"/>
       <c r="B459" s="15"/>
     </row>
-    <row r="460" spans="1:2" ht="24.95" customHeight="1">
+    <row r="460" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="11"/>
       <c r="B460" s="15"/>
     </row>
-    <row r="461" spans="1:2" ht="24.95" customHeight="1">
+    <row r="461" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="11"/>
       <c r="B461" s="15"/>
     </row>
-    <row r="462" spans="1:2" ht="24.95" customHeight="1">
+    <row r="462" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="11"/>
       <c r="B462" s="15"/>
     </row>
-    <row r="463" spans="1:2" ht="24.95" customHeight="1">
+    <row r="463" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="11"/>
       <c r="B463" s="15"/>
     </row>
-    <row r="464" spans="1:2" ht="24.95" customHeight="1">
+    <row r="464" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="11"/>
       <c r="B464" s="15"/>
     </row>
-    <row r="465" spans="1:2" ht="24.95" customHeight="1">
+    <row r="465" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="11"/>
       <c r="B465" s="15"/>
     </row>
-    <row r="466" spans="1:2" ht="24.95" customHeight="1">
+    <row r="466" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="11"/>
       <c r="B466" s="15"/>
     </row>
-    <row r="467" spans="1:2" ht="24.95" customHeight="1">
+    <row r="467" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="11"/>
       <c r="B467" s="15"/>
     </row>
-    <row r="468" spans="1:2" ht="24.95" customHeight="1">
+    <row r="468" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="11"/>
       <c r="B468" s="15"/>
     </row>
-    <row r="469" spans="1:2" ht="24.95" customHeight="1">
+    <row r="469" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="11"/>
       <c r="B469" s="15"/>
     </row>
-    <row r="470" spans="1:2" ht="24.95" customHeight="1">
+    <row r="470" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="11"/>
       <c r="B470" s="15"/>
     </row>
-    <row r="471" spans="1:2" ht="24.95" customHeight="1">
+    <row r="471" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="11"/>
       <c r="B471" s="15"/>
     </row>
-    <row r="472" spans="1:2" ht="24.95" customHeight="1">
+    <row r="472" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="11"/>
       <c r="B472" s="15"/>
     </row>
-    <row r="473" spans="1:2" ht="24.95" customHeight="1">
+    <row r="473" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="11"/>
       <c r="B473" s="15"/>
     </row>
-    <row r="474" spans="1:2" ht="24.95" customHeight="1">
+    <row r="474" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="11"/>
       <c r="B474" s="15"/>
     </row>
-    <row r="475" spans="1:2" ht="24.95" customHeight="1">
+    <row r="475" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="11"/>
       <c r="B475" s="15"/>
     </row>
-    <row r="476" spans="1:2" ht="24.95" customHeight="1">
+    <row r="476" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="11"/>
       <c r="B476" s="15"/>
     </row>
-    <row r="477" spans="1:2" ht="24.95" customHeight="1">
+    <row r="477" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="11"/>
       <c r="B477" s="15"/>
     </row>
-    <row r="478" spans="1:2" ht="24.95" customHeight="1">
+    <row r="478" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="11"/>
       <c r="B478" s="15"/>
     </row>
-    <row r="479" spans="1:2" ht="24.95" customHeight="1">
+    <row r="479" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="11"/>
       <c r="B479" s="15"/>
     </row>
-    <row r="480" spans="1:2" ht="24.95" customHeight="1">
+    <row r="480" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="11"/>
       <c r="B480" s="15"/>
     </row>
-    <row r="481" spans="1:2" ht="24.95" customHeight="1">
+    <row r="481" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="11"/>
       <c r="B481" s="15"/>
     </row>
-    <row r="482" spans="1:2" ht="24.95" customHeight="1">
+    <row r="482" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="11"/>
       <c r="B482" s="15"/>
     </row>
-    <row r="483" spans="1:2" ht="24.95" customHeight="1">
+    <row r="483" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="11"/>
       <c r="B483" s="15"/>
     </row>
-    <row r="484" spans="1:2" ht="24.95" customHeight="1">
+    <row r="484" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="11"/>
       <c r="B484" s="15"/>
     </row>
-    <row r="485" spans="1:2" ht="24.95" customHeight="1">
+    <row r="485" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="11"/>
       <c r="B485" s="15"/>
     </row>
-    <row r="486" spans="1:2" ht="24.95" customHeight="1">
+    <row r="486" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="11"/>
       <c r="B486" s="15"/>
     </row>
-    <row r="487" spans="1:2" ht="24.95" customHeight="1">
+    <row r="487" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="11"/>
       <c r="B487" s="15"/>
     </row>
-    <row r="488" spans="1:2" ht="24.95" customHeight="1">
+    <row r="488" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="11"/>
       <c r="B488" s="15"/>
     </row>
-    <row r="489" spans="1:2" ht="24.95" customHeight="1">
+    <row r="489" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="11"/>
       <c r="B489" s="15"/>
     </row>
-    <row r="490" spans="1:2" ht="24.95" customHeight="1">
+    <row r="490" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="11"/>
       <c r="B490" s="15"/>
     </row>
-    <row r="491" spans="1:2" ht="24.95" customHeight="1">
+    <row r="491" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="11"/>
       <c r="B491" s="15"/>
     </row>
-    <row r="492" spans="1:2" ht="24.95" customHeight="1">
+    <row r="492" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="11"/>
       <c r="B492" s="15"/>
     </row>
-    <row r="493" spans="1:2" ht="24.95" customHeight="1">
+    <row r="493" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="11"/>
       <c r="B493" s="15"/>
     </row>
-    <row r="494" spans="1:2" ht="24.95" customHeight="1">
+    <row r="494" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="11"/>
       <c r="B494" s="15"/>
     </row>
-    <row r="495" spans="1:2" ht="24.95" customHeight="1">
+    <row r="495" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="11"/>
       <c r="B495" s="15"/>
     </row>
-    <row r="496" spans="1:2" ht="24.95" customHeight="1">
+    <row r="496" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="11"/>
       <c r="B496" s="15"/>
     </row>
-    <row r="497" spans="1:2" ht="24.95" customHeight="1">
+    <row r="497" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="11"/>
       <c r="B497" s="15"/>
     </row>
-    <row r="498" spans="1:2" ht="24.95" customHeight="1">
+    <row r="498" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="11"/>
       <c r="B498" s="15"/>
     </row>
-    <row r="499" spans="1:2" ht="24.95" customHeight="1">
+    <row r="499" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="11"/>
       <c r="B499" s="15"/>
     </row>
-    <row r="500" spans="1:2" ht="24.95" customHeight="1">
+    <row r="500" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="11"/>
       <c r="B500" s="15"/>
     </row>
@@ -8301,65 +8414,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E34FD7-1B73-4707-A12E-62E00BDCA8A2}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
